--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F610686-D8E0-4CC6-8685-69FEDDA42CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47C550-3B15-4C42-9297-8EE7E48B67FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,11 +1623,6 @@
     <t>UC1</t>
   </si>
   <si>
-    <t>Area: Energy system
-Domain: Transmission, DER, Customer Premises
-Zones: Operation, Market</t>
-  </si>
-  <si>
     <t>Frequency control</t>
   </si>
   <si>
@@ -1656,24 +1651,6 @@
   </si>
   <si>
     <t>From [49.6;50.6] to [49.8;50.3] Hz</t>
-  </si>
-  <si>
-    <t>•	Industrial prosumers will be interested in and capable of providing flexibility services to the grid
-•	Residential prosumers will be interested in providing flexibility services to the grid
-•	For residential DR: buildings equipped with heating boilers or air-conditioning units with adequate control system in place
-•	At least one battery for frequency control will be connected to the grid and to the FMTP
-•	Batteries should react upon a control signal to change their power output
-•	EV charging stations will be connected to the grid and operating
-•	The output of the PV plants can be controlled
-•	The PV plants should react upon a control signal to change their power output
-•	EDM can update the AGC to communicate FRR setpoints to distributed assets via the FMTP
-•	All assets providing FCR must be equipped with on-site frequency measurement devices with high precision.
-•	Secure and reliable communication channels supporting bidirectional communication between the distributed assets, intermediate platforms (VPPs, EV charging management), the FMTP and the AGC
-•	Contracts between the assets and EDM to ensure legal security during the test period</t>
-  </si>
-  <si>
-    <t>•	For Smart charging EV: EVs must be plugged to the EV charging stations to participate in frequency control
-•	AGC, FMTP and intermediate platforms are available, functioning, integrated, and tested</t>
   </si>
   <si>
     <t>Linked to “Voltage control” UC (UC2) as potential conflicts within flexibility products could appear.</t>
@@ -1899,6 +1876,1343 @@
 The scope of the use case includes dimensioning of balancing service reserves for an islanding system, prequalification of suitable distributed energy assets and intermediary platforms (Virtual Power Plants, VPPs), tendering and contracting balancing services, balancing service activation, monitoring, validation, and remuneration.
 All periodic communication between the system operator and the market participants, like bidding, monitoring and activation is organized via a Flexibility Management and Trading Platform (FMTP). 
 The use case focuses on the situation on the Island of Mayotte and aims to adapt to the historically grown infrastructure and processes, but also takes into account updates of the system operators SCADA in the near future.</t>
+  </si>
+  <si>
+    <t>Operational guidelines from ENTSO-E</t>
+  </si>
+  <si>
+    <t>Operational Handbook P1-Policy 1: Load-Frequency Control and Performance</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>ENTSO-E</t>
+  </si>
+  <si>
+    <t>https://eepublicdownloads.entsoe.eu/clean-documents/pre2015/publications/entsoe/Operation_Handbook/Policy_1_final.pdf</t>
+  </si>
+  <si>
+    <t>Operational guidelines from the French government</t>
+  </si>
+  <si>
+    <t>Ref-2</t>
+  </si>
+  <si>
+    <t>French standards about system operation</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>French government</t>
+  </si>
+  <si>
+    <t>https://codes.droit.org/PDF/Code%20de%20l'%C3%A9nergie.pdf</t>
+  </si>
+  <si>
+    <t>ENTSO-E Role model</t>
+  </si>
+  <si>
+    <t>Ref-3</t>
+  </si>
+  <si>
+    <t>Role model</t>
+  </si>
+  <si>
+    <t>The Harmonized Role Model</t>
+  </si>
+  <si>
+    <t>Version 2020-01</t>
+  </si>
+  <si>
+    <t>https://www.entsoe.eu/digital/cim/role-models/#harmonised-electricity-role-model</t>
+  </si>
+  <si>
+    <t>Sc1</t>
+  </si>
+  <si>
+    <t>Frequency reserve requirements</t>
+  </si>
+  <si>
+    <t>Calculating the amount of FCR and FRR needed</t>
+  </si>
+  <si>
+    <t>System Operator</t>
+  </si>
+  <si>
+    <t>Long-term planning (yearly activity)</t>
+  </si>
+  <si>
+    <t>Required amount of Inertia, FCR, FRR to be contracted and reserved are defined</t>
+  </si>
+  <si>
+    <t>Need for: 
+- Historic data about electricity system
+- Mid-term consumption forecasts
+- List of planned new DER installations</t>
+  </si>
+  <si>
+    <t>Sc2</t>
+  </si>
+  <si>
+    <t>Detection of the frequency issues - FCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection of the frequency deviations locally on the site of the flexibility provider </t>
+  </si>
+  <si>
+    <t>Continuous activity</t>
+  </si>
+  <si>
+    <t>Need for high precision frequency meter</t>
+  </si>
+  <si>
+    <t>Frequency deviations are detected on-site</t>
+  </si>
+  <si>
+    <t>Sc3</t>
+  </si>
+  <si>
+    <t>Detection of the frequency issues - FRR</t>
+  </si>
+  <si>
+    <t>Detection of the frequency deviations centrally in the SCADA</t>
+  </si>
+  <si>
+    <t>System Operator, with the help of the AGC</t>
+  </si>
+  <si>
+    <t>Frequency deviations are detected by central AGC</t>
+  </si>
+  <si>
+    <t>Sc4</t>
+  </si>
+  <si>
+    <t>Contracting balancing service products</t>
+  </si>
+  <si>
+    <t>Contractual obligations between the SO (EDM) and the flexibility providers</t>
+  </si>
+  <si>
+    <t>Periodic tender (yearly, monthly, weekly and/or daily)</t>
+  </si>
+  <si>
+    <t>Prequalified DER are available</t>
+  </si>
+  <si>
+    <t>List of available flexible capacity and price (merit order) is available</t>
+  </si>
+  <si>
+    <t>Sc5</t>
+  </si>
+  <si>
+    <t>Flexibility activation through local controller - FCR</t>
+  </si>
+  <si>
+    <t>Activation of the flexibility providers automatically using its local controller</t>
+  </si>
+  <si>
+    <t>Frequency deviation is detected on-site</t>
+  </si>
+  <si>
+    <t>FCR control algorithms are  implemented in on-site controller</t>
+  </si>
+  <si>
+    <t>FCR provision by DER</t>
+  </si>
+  <si>
+    <t>Sc6</t>
+  </si>
+  <si>
+    <t>Flexibility activation through the Flexibility Management and Trading Platform (FMTP) - FRR</t>
+  </si>
+  <si>
+    <t>Activation of the flexibility providers automatically using centralized platform - FMTP</t>
+  </si>
+  <si>
+    <t>Frequency deviation is detected by AGC</t>
+  </si>
+  <si>
+    <t>AGC’s control algorithms are  trained with system characteristics</t>
+  </si>
+  <si>
+    <t>FRR provision by DER</t>
+  </si>
+  <si>
+    <t>Sc7</t>
+  </si>
+  <si>
+    <t>Settlement process to remunerate flexibility activation</t>
+  </si>
+  <si>
+    <t>Validation and settlement of the activation responses</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Daily or monthly</t>
+  </si>
+  <si>
+    <t>Meter data are available</t>
+  </si>
+  <si>
+    <t>Remuneration of ancillary service provision per DER</t>
+  </si>
+  <si>
+    <t>Sc8</t>
+  </si>
+  <si>
+    <t>Frequency control by flexibility provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process of flexibility provision by the flexibility provider </t>
+  </si>
+  <si>
+    <t>Reception of activation signal or activation schedule</t>
+  </si>
+  <si>
+    <t>Successful provision of flexibility service</t>
+  </si>
+  <si>
+    <t>Flexibility bid is accepted via FMTP</t>
+  </si>
+  <si>
+    <t>Sc1 - Frequency reserve requirements</t>
+  </si>
+  <si>
+    <t>St1</t>
+  </si>
+  <si>
+    <t>Periodically (yearly)</t>
+  </si>
+  <si>
+    <t>Define desired conditions for grid frequency</t>
+  </si>
+  <si>
+    <t>In a phase of mid-term planning, the SO defines the frequency control strategy, incl. nominal (target) frequency value, frequency bandwidth for operation and frequency thresholds for emergency actions</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>IE-01-01 (frequency bandwigth and emergency thresholds)</t>
+  </si>
+  <si>
+    <t>R-01-01 (guidelines for operation defined by regulator)</t>
+  </si>
+  <si>
+    <t>St2</t>
+  </si>
+  <si>
+    <t>Collect data of the power system</t>
+  </si>
+  <si>
+    <t>Collect the data to describe the power system (system model), historic measurements (load, frequency) and events (fault statistics)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>IE-01-02 (system model)
+IE-01-03 (historic measurements)
+IE-01-04 (fault statistics)</t>
+  </si>
+  <si>
+    <t>R-01-02 (historic data about electricity system, load and frequency)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St3 </t>
+  </si>
+  <si>
+    <t>Mid-term &amp; long-term forecasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SO generates mid-term and long-term forecasts of the development of consumption and generation </t>
+  </si>
+  <si>
+    <t>IE-01-05 (mid-term &amp; long-term forecasts)</t>
+  </si>
+  <si>
+    <t>R-01-03 (List of planned new DER installations)</t>
+  </si>
+  <si>
+    <t>St4</t>
+  </si>
+  <si>
+    <t>Define design scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SO identifies critical situations (e.g., yearly peak load, separation of parts of the grid, etc.) and defines design scenarios comprising all possible critical situations. </t>
+  </si>
+  <si>
+    <t>IE-01-06 (design scenarios)</t>
+  </si>
+  <si>
+    <t>IE-01, IE-02, IE-03, IE-04, IE-05 received</t>
+  </si>
+  <si>
+    <t>St5</t>
+  </si>
+  <si>
+    <t>Calculate the required amount of flexibility- balancing reserve needed on the island - FRR</t>
+  </si>
+  <si>
+    <t>The SO assesses the amount of flexibility (FCR, FRR balancing reserve) required to perform the load-frequency control of the power system of the geographical islands.</t>
+  </si>
+  <si>
+    <t>IE-01-07 (required amount of balancing reserve)</t>
+  </si>
+  <si>
+    <t>IE-01, IE-02, IE-03, IE-04, IE-05, IE-06 received</t>
+  </si>
+  <si>
+    <t>St6</t>
+  </si>
+  <si>
+    <t>St5 finished</t>
+  </si>
+  <si>
+    <t>Define balancing service products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the required amount of flexibility the SO defines appropriate balancing products </t>
+  </si>
+  <si>
+    <t>IE-01-08 (definition of balancing products and requirements)</t>
+  </si>
+  <si>
+    <t>IE-01-07 received</t>
+  </si>
+  <si>
+    <t>Sc2 - Detection of the frequency issues - Frequency Containment Reservce (FCR)</t>
+  </si>
+  <si>
+    <t>Periodically (interval of 1s of faster)</t>
+  </si>
+  <si>
+    <t>Measure the network frequency</t>
+  </si>
+  <si>
+    <t>Energy assets (central assets or DER) capable of providing FCR reserve are equipped with an accurate frequency meter to continuously measure frequency of the point of grid connection in real-time</t>
+  </si>
+  <si>
+    <t>IE-02-01 (Network frequency)</t>
+  </si>
+  <si>
+    <t>R-02-01 (frequency meter on-site)</t>
+  </si>
+  <si>
+    <t>St3</t>
+  </si>
+  <si>
+    <t>New frequency measurement available</t>
+  </si>
+  <si>
+    <t>Submit the measured frequency to the local controller</t>
+  </si>
+  <si>
+    <t>The measured frequency must be sent to the local controller capable of receiving freq. measurements in real-time</t>
+  </si>
+  <si>
+    <t>R-02-02 (on-site PLC)</t>
+  </si>
+  <si>
+    <t>When freq. measurements arrive to the local controller</t>
+  </si>
+  <si>
+    <t>Calculate frequency deviation</t>
+  </si>
+  <si>
+    <t>An algorithm on the PLC compares the measured frequency with the target value and calculates the deviation</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>IE-02-02 (frequency deviation)</t>
+  </si>
+  <si>
+    <t>Sc3 - Detection of the frequency issues - Frequency Restoration Reserve (FRR)</t>
+  </si>
+  <si>
+    <t>Continuously</t>
+  </si>
+  <si>
+    <t>Measure grid frequency</t>
+  </si>
+  <si>
+    <t>An accurate (central) frequency meter located in a major substation (e.g., Longoni, Badamiers) measures frequency of the grid in real-time</t>
+  </si>
+  <si>
+    <t>IE-03-01 (grid frequency)</t>
+  </si>
+  <si>
+    <t>R-03-01 (central frequency meter)</t>
+  </si>
+  <si>
+    <t>Receive frequency measurement</t>
+  </si>
+  <si>
+    <t>The measured frequency is received by the AGC embedded in the SCADA.</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>R-03-02 (AGC)</t>
+  </si>
+  <si>
+    <t>Frequency measurement received by AGC</t>
+  </si>
+  <si>
+    <t>Measured frequency is stored and available for processing</t>
+  </si>
+  <si>
+    <t>The frequency measurements need to be persisted and available in real time and for later analysis. The SCADA (where AGC is embedded) saved the measurements in a database.</t>
+  </si>
+  <si>
+    <t>R-03-03 (data storage)</t>
+  </si>
+  <si>
+    <t>Calculate the frequency deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate the difference between the current measured frequency and the define nominal (target) frequency (e.g., 50 Hz) </t>
+  </si>
+  <si>
+    <t>IE-03-02 (frequency deviation)</t>
+  </si>
+  <si>
+    <t>Frequency deviation calculated</t>
+  </si>
+  <si>
+    <t>Calculate the new FRR setpoint</t>
+  </si>
+  <si>
+    <t>Based on the actual frequency deviation and its change in time the control algorithm calculates the new FRR setpoint</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>IE-03-03 (updated FRR setpoint)</t>
+  </si>
+  <si>
+    <t>R-03-04 (P-f- control algorithm)</t>
+  </si>
+  <si>
+    <t>Sc4 - Contracting balancing service products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After definition of technical require-ments </t>
+  </si>
+  <si>
+    <t>Publish technical and market rules for balancing services</t>
+  </si>
+  <si>
+    <t>The SO publishes the document describing the balancing services, their technical and administrative requirements and tendered products.</t>
+  </si>
+  <si>
+    <t>IE-04-01 (balancing services rules)</t>
+  </si>
+  <si>
+    <t>IE-01-08</t>
+  </si>
+  <si>
+    <t>After reception of balancing service rules</t>
+  </si>
+  <si>
+    <t>Flexibility providers prepare for participation in balancing services</t>
+  </si>
+  <si>
+    <t>(3rd party) flexibility providers able to fulfil the SO’s requirements prepare for participation via the FMTP, directly or by aggregation via an intermediate platform (e.g., analyse available flexible power, identify suitable flexibility services and products, fulfil technical requirements). Finally, the flexibility provider or aggregator requests the prequalification of the DER (if directly connected to the FMTP).</t>
+  </si>
+  <si>
+    <t>EXECUTE</t>
+  </si>
+  <si>
+    <t>Flexibility providers</t>
+  </si>
+  <si>
+    <t>IE-04-02 (Request for prequalification of DER)</t>
+  </si>
+  <si>
+    <t>IE-04-01</t>
+  </si>
+  <si>
+    <t>IE-04-01 available</t>
+  </si>
+  <si>
+    <t>After reception of tender announcement</t>
+  </si>
+  <si>
+    <t>Aggregators prepare for participation in balancing services</t>
+  </si>
+  <si>
+    <t>Aggregators prepare for balancing service provision, implementing the technical requirements and establishing contracts with flexibility providers. Finally, the aggregator requests the prequalification of the intermediate platform.</t>
+  </si>
+  <si>
+    <t>Aggregator</t>
+  </si>
+  <si>
+    <t>IE-04-03 (Request for prequalification of platform)</t>
+  </si>
+  <si>
+    <t>SO received request for prequalification</t>
+  </si>
+  <si>
+    <t>Prequalify flexibility provider</t>
+  </si>
+  <si>
+    <t>The SO and flexibility provider (and aggregator if involved) conduct a series of tests to confirm the technical and administrative capability of the DER (and intermediate platform if involved) to provide the balancing services according to the SO’s requirements. The step is finalized by issuing the confirmation of prequalification by the SO.</t>
+  </si>
+  <si>
+    <t>IE-04-04 (confirmation of prequalification)</t>
+  </si>
+  <si>
+    <t>IE-04-02 or IE-04-03 available</t>
+  </si>
+  <si>
+    <t>Periodically (yearly, monthly, weekly, or daily)</t>
+  </si>
+  <si>
+    <t>Publish tender for balancing services</t>
+  </si>
+  <si>
+    <t>The SO details the balancing market products and starts a tendering process and informs all prequalified flexibility providers about the tender</t>
+  </si>
+  <si>
+    <t>IE-04-05 (rules and schedules of balancing service tender)</t>
+  </si>
+  <si>
+    <t>St5 finalized</t>
+  </si>
+  <si>
+    <t>Submit balancing services bids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prequalified flexibility providers forecast the available power for the tendered balancing service products and calculate the costs of service provision. Then the most suitable balancing products are identified and balancing service bids are submitted via FMTP. </t>
+  </si>
+  <si>
+    <t>Flexibility provider or aggregator</t>
+  </si>
+  <si>
+    <t>IE-04-06 (balancing service bid document)</t>
+  </si>
+  <si>
+    <t>IE-04-05, R-04-01 (prequalified flexibility providers)</t>
+  </si>
+  <si>
+    <t>St7</t>
+  </si>
+  <si>
+    <t>SO received bid for balancing service provision</t>
+  </si>
+  <si>
+    <t>Contract balancing services</t>
+  </si>
+  <si>
+    <t>The SO selects the most favourable bids for flexibility service provision according to the tendering rules and informs the flexibility providers about acceptance or rejection of their bids via the FMTP. The acceptance of a balancing service bid is equivalent to a legal contract between SO and flexibility provider.</t>
+  </si>
+  <si>
+    <t>IE-04-07 (balancing service bid acceptance)</t>
+  </si>
+  <si>
+    <t>IE-04-06 received</t>
+  </si>
+  <si>
+    <t>Sc5 - Flexibility activation through local controller - FCR</t>
+  </si>
+  <si>
+    <t>Reception of FCR bid acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable FCR service </t>
+  </si>
+  <si>
+    <t>The FCR functionality is unlocked via the PLC of the DER during the timespan defined in the accepted FCR bid.</t>
+  </si>
+  <si>
+    <t>IE-05-01 (FCR provision enabled)</t>
+  </si>
+  <si>
+    <t>IE-04-07 (accepted FCR bid)</t>
+  </si>
+  <si>
+    <t>FCR provision enabled</t>
+  </si>
+  <si>
+    <t>Calculate FCR setpoint</t>
+  </si>
+  <si>
+    <t>The PLC calculates the FCR setpoint depending on the frequency deviation (calculated on-site and in real time, see scenario 2) based on an algorithm defined by the SO; e.g., a linear curve PFCR=f(Df)</t>
+  </si>
+  <si>
+    <t>IE-05-02 (FCR setpoint)</t>
+  </si>
+  <si>
+    <t>IE-02-02 (frequency deviation)
+R-05-01 (P(Df) characteristics implemented)</t>
+  </si>
+  <si>
+    <t>FCR setpoint calculated (continuously, e.g., 1s interval)</t>
+  </si>
+  <si>
+    <t>Follow new FCR setpoint</t>
+  </si>
+  <si>
+    <t>The DER adapts the active power feed-in (or consumption) according to the FCR setpoint within the required FAT.</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>R-05-02 (DER operative)</t>
+  </si>
+  <si>
+    <t>Continuously (e.g., 1s interval)</t>
+  </si>
+  <si>
+    <t>Send monitoring data to FMTP</t>
+  </si>
+  <si>
+    <t>As long as the FCR service provision is enabled (timespan of the accepted FCR bid), the PLC sends monitoring data to the FMTP, where it is forwarded to the AGC)</t>
+  </si>
+  <si>
+    <t>PLC (DER)</t>
+  </si>
+  <si>
+    <t>R-05-03 (communication. channel between PLC and FMTP)
+R-05-05 (active power meter (on-site))</t>
+  </si>
+  <si>
+    <t>Validate FCR provision</t>
+  </si>
+  <si>
+    <t>The AGC receives the FCR monitoring data and compares the measurements with the expected behaviour.</t>
+  </si>
+  <si>
+    <t>IE-05-04 (FCR validation report)</t>
+  </si>
+  <si>
+    <t>R-05-04 (algorithm to validate FCR performance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE-05-03 (FCR monitoring data) </t>
+  </si>
+  <si>
+    <t>FCR malperformance detected</t>
+  </si>
+  <si>
+    <t>Inform flexibility provider about malperformance</t>
+  </si>
+  <si>
+    <t>The SO informs the flexibility provider about the FCR malperformance and orders immediate correction of the behaviour</t>
+  </si>
+  <si>
+    <t>FCR validation report received</t>
+  </si>
+  <si>
+    <t>Remedy FCR malperformance</t>
+  </si>
+  <si>
+    <t>The flexibility provider updates the DER control algorithms in order to remedy the FCR malperformance and to provide the FCR service according to technical specifications.</t>
+  </si>
+  <si>
+    <t>Sc6 - Flexibility activation through the Flexibility Management and Trading Platform - FRR</t>
+  </si>
+  <si>
+    <t>Reception of FRR bid acceptance</t>
+  </si>
+  <si>
+    <t>Enable FRR service</t>
+  </si>
+  <si>
+    <t>The FRR functionality is unlocked on the intermediate platform and/or the PLC of the DER during the timespan defined in the accepted FRR bid. The PLC starts waiting to receive activation requests from the FMTP or intermediate platform.</t>
+  </si>
+  <si>
+    <t>Intermediate platform, PLC</t>
+  </si>
+  <si>
+    <t>IE-06-01 (FRR provision enabled)</t>
+  </si>
+  <si>
+    <t>IE-04-07 (accepted FRR bid)</t>
+  </si>
+  <si>
+    <t>New FRR setpoint available</t>
+  </si>
+  <si>
+    <t>Dispatch balancing assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new FRR setpoint is dispatched between central balancing assets (diesel engines operated by the SO) and distributed balancing assets (DER operated by third party). </t>
+  </si>
+  <si>
+    <t>IE-06-02 (setpoints for central balancing assets)
+IE-06-03 (setpoint for DER)</t>
+  </si>
+  <si>
+    <t>R-06-01 (dispatching algorithm)</t>
+  </si>
+  <si>
+    <t>Central assets’ FRR setpoint updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive new FRR setpoints </t>
+  </si>
+  <si>
+    <t>Central balancing assets (operated by the SO) receive their new individual setpoint</t>
+  </si>
+  <si>
+    <t>Central balancing asset (diesel engines)</t>
+  </si>
+  <si>
+    <t>IE-06-02 (setpoints for central balancing assets)</t>
+  </si>
+  <si>
+    <t>R-06-02 (central balancing asset available)</t>
+  </si>
+  <si>
+    <t>St3a</t>
+  </si>
+  <si>
+    <t>St3b</t>
+  </si>
+  <si>
+    <t>Decentral assets’ FRR setpoint updated</t>
+  </si>
+  <si>
+    <t>Receive new FRR setpoints</t>
+  </si>
+  <si>
+    <t>The updated FRR setpoint is received by the FMTP platform.</t>
+  </si>
+  <si>
+    <t>IE-06-03 (setpoint for DER)</t>
+  </si>
+  <si>
+    <t>R-06-03 (FMTP available)
+R-06-07 (comm. channel between AGC and FMTP)</t>
+  </si>
+  <si>
+    <t>FMTP received a new FRR setpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMTP dispatches contracted flexibility providers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FMTP distributes the received FRR setpoint between the contracted flexibility providers (DERs or intermediate platforms) based on predefined rules (pro-rata or according to merit order), and submits the activation requests (direct setpoint or activation schedule). </t>
+  </si>
+  <si>
+    <t>IE-06-04 (activation requests)</t>
+  </si>
+  <si>
+    <t>R-06-03 (FMTP available)
+R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
+  </si>
+  <si>
+    <t>Intermediate platform receives activation request</t>
+  </si>
+  <si>
+    <t>Intermediate platform distributes activation requests</t>
+  </si>
+  <si>
+    <t>Intermediate platforms</t>
+  </si>
+  <si>
+    <t>IE-06-05 (individual setpoints)</t>
+  </si>
+  <si>
+    <t>The intermediate platform disaggregates the received activation request and forwards the setpoints to the connected DER, which previously indicated availability.</t>
+  </si>
+  <si>
+    <t>R-06-04 (DER available)
+R-06-05 (communication channel between DER and intermediate platform)</t>
+  </si>
+  <si>
+    <t>DER received the activation request</t>
+  </si>
+  <si>
+    <t>The DER changes its generation or consumption according to the received setpoint within the required FAT (details see scenario 8).</t>
+  </si>
+  <si>
+    <t>R-06-04 (DER available)</t>
+  </si>
+  <si>
+    <t>Continuously (e.g., in 2s interval)</t>
+  </si>
+  <si>
+    <t>Send monitoring data to intermediate platform</t>
+  </si>
+  <si>
+    <t>As long as the FRR service provision is enabled (timespan of the accepted FRR bid), the DER sends monitoring data to the intermediate platform.</t>
+  </si>
+  <si>
+    <t>IE-06-06 (individual FRR moni-toring data)</t>
+  </si>
+  <si>
+    <t>R-06-05 (communication channel between DER and intermediate platform)
+R-05-05 (active power meter, on-site)</t>
+  </si>
+  <si>
+    <t>St8</t>
+  </si>
+  <si>
+    <t>Send monitoring data to AGC</t>
+  </si>
+  <si>
+    <t>The intermediate platform receives monitoring data from the connected DER and aggregates the values. The aggregated values are sent to the FMTP.
+Alternatively, large DER send monitoring data directly to the FMTP, without aggregation via an intermediate platform.</t>
+  </si>
+  <si>
+    <t>IE-06-07 (aggregated FRR monitoring data)</t>
+  </si>
+  <si>
+    <t>R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
+  </si>
+  <si>
+    <t>St9</t>
+  </si>
+  <si>
+    <t>St9a</t>
+  </si>
+  <si>
+    <t>Validate FRR provision</t>
+  </si>
+  <si>
+    <t>The FMTP receives the FRR monitoring data and compares the measurements with the expected behaviour.</t>
+  </si>
+  <si>
+    <t>IE-06-08 (FRR validation report)</t>
+  </si>
+  <si>
+    <t>R-06-08 (algorithm to validate FRR performance)</t>
+  </si>
+  <si>
+    <t>St9b</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>In case of doubts, the SO compares FRR monitoring data with (public) meter readings.</t>
+  </si>
+  <si>
+    <t>R-06-09 (meter data)</t>
+  </si>
+  <si>
+    <t>St10</t>
+  </si>
+  <si>
+    <t>FRR malperformance detected</t>
+  </si>
+  <si>
+    <t>The SO informs the flexibility provider about the FRR malperformance and orders immediate correction of the behaviour.</t>
+  </si>
+  <si>
+    <t>St11</t>
+  </si>
+  <si>
+    <t>FRR validation report received</t>
+  </si>
+  <si>
+    <t>Remedy FRR malperformance</t>
+  </si>
+  <si>
+    <t>The flexibility provider updates the DER control algorithms in order to remedy the FRR malperformance and to provide the FRR service according to technical specifications.</t>
+  </si>
+  <si>
+    <t>Sc7-Settlement process to remunerate flexibility activation</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process monitoring data </t>
+  </si>
+  <si>
+    <t>In the morning hours the energy activated during the previous day is calculated individually for each balancing service contract (accepted bid).</t>
+  </si>
+  <si>
+    <t>IE-04-07 (balancing service bid acceptance)
+IE-06-07 (monitoring data)</t>
+  </si>
+  <si>
+    <t>IE-06-08 (FRR validation report)
+IE-05-04 (FCR validation report)</t>
+  </si>
+  <si>
+    <t>After completing previous step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting of balancing service provision </t>
+  </si>
+  <si>
+    <t>The activated energy and reserved capacity (provided by the aggregator or flexibility provider) is accounted per accepted bid and summarized by flexibility provider.</t>
+  </si>
+  <si>
+    <t>IE-07-01 (daily balancing service accounting)</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Remuneration of flexibility service provision</t>
+  </si>
+  <si>
+    <t>The daily remuneration of balancing service provision is summarized for the entire past month and remunerated to each flexibility provider</t>
+  </si>
+  <si>
+    <t>IE-07-02 (monthly balancing service accounting and remuneration report)</t>
+  </si>
+  <si>
+    <t>Sc8-Frequency control by flexibility provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forecast flexible capacity for upcoming tender period </t>
+  </si>
+  <si>
+    <t>The flexibility provider forecasts the amount and costs of the balancing service provision for the next tender period.</t>
+  </si>
+  <si>
+    <t>Flexibility provider (DER)</t>
+  </si>
+  <si>
+    <t>IE-08-01 (forecast of flexible capacity and costs)</t>
+  </si>
+  <si>
+    <t>R-08-01 (Operational forecast of DER)</t>
+  </si>
+  <si>
+    <t>Previous step finalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregator receives flexibility forecast </t>
+  </si>
+  <si>
+    <t>The aggregator receives the flexible capacity &amp; cost forecasts of all contracted flexibility providers (DERs) and creates a merit order of flexibility.</t>
+  </si>
+  <si>
+    <t>Aggregator (intermediary platform)</t>
+  </si>
+  <si>
+    <t>IE-08-02 (flexibility merit order)</t>
+  </si>
+  <si>
+    <t>IE-08-01
+R-06-05 (communication channel between DER and intermediate platform)</t>
+  </si>
+  <si>
+    <t>Participation in balancing service tender</t>
+  </si>
+  <si>
+    <t>The aggregator participates in the balancing service tender, creates bids and submits the bids to the FMTP.
+(See scenario 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid acceptance message received </t>
+  </si>
+  <si>
+    <t>Flexibility reservation request</t>
+  </si>
+  <si>
+    <t>The aggregator informs the connected DER about required flexibility reservation for the next product period and the conditions for balancing service provision.</t>
+  </si>
+  <si>
+    <t>IE-08-02 (Flexibility reservation request)</t>
+  </si>
+  <si>
+    <t>R-06-05 (communication channel between DER and intermediate platform)</t>
+  </si>
+  <si>
+    <t>Flexibility reservation request received</t>
+  </si>
+  <si>
+    <t>Flexibility reservation</t>
+  </si>
+  <si>
+    <t>The DER reserves the requested flexibility for the product period.</t>
+  </si>
+  <si>
+    <t>Real-time flexibility calculation</t>
+  </si>
+  <si>
+    <t>The DER calculates the actual flexibility bandwidth in real time and reports the values to the intermediary platform.</t>
+  </si>
+  <si>
+    <t>IE-08-03 (actual flexibility of DER)</t>
+  </si>
+  <si>
+    <t>Listen to incoming setpoints</t>
+  </si>
+  <si>
+    <t>The PLC receives a setpoint to start an activation</t>
+  </si>
+  <si>
+    <t>Intermediary platform</t>
+  </si>
+  <si>
+    <t>Activation setpoint received by DER</t>
+  </si>
+  <si>
+    <t>Start activation program</t>
+  </si>
+  <si>
+    <t>After receiving a new setpoint (see (see scenario 6), the PLC of the DER initiates the activation program (ramp-up) in order to meet the setpoint received from the intermediary platform within the FAT.</t>
+  </si>
+  <si>
+    <t>The PLC receives a new setpoint to change the power of an activation</t>
+  </si>
+  <si>
+    <t>New activation setpoint received by DER</t>
+  </si>
+  <si>
+    <t>Change activation program</t>
+  </si>
+  <si>
+    <t>The PLC of the DER updates the activation program (ramp-up) in order to meet the new setpoint within the FAT.</t>
+  </si>
+  <si>
+    <t>The PLC receives a setpoint of 0 MW to end the ongoing activation.</t>
+  </si>
+  <si>
+    <t>St12</t>
+  </si>
+  <si>
+    <t>Activation end received by DER</t>
+  </si>
+  <si>
+    <t>End activation program</t>
+  </si>
+  <si>
+    <t>The PLC of the DER initiates the end activation program (ramp-down) in order and the balancing energy provision within the FAT.</t>
+  </si>
+  <si>
+    <t>St13</t>
+  </si>
+  <si>
+    <t>Continuously (e.g., 2s interval)</t>
+  </si>
+  <si>
+    <t>Send monitoring data</t>
+  </si>
+  <si>
+    <t>The DER processes the actual measurements and sends the required monitoring data to the intermediary platform.</t>
+  </si>
+  <si>
+    <t>IE-06-06 (individual FRR monitoring data)</t>
+  </si>
+  <si>
+    <t>R-05-05 (active power meter (on-site))</t>
+  </si>
+  <si>
+    <t>IE-01-01</t>
+  </si>
+  <si>
+    <t>frequency band-width and emergency thresholds</t>
+  </si>
+  <si>
+    <t>Predefined bandwidth of allowed system frequency, including target value (50 Hz) and thresholds for initiating emergency measures</t>
+  </si>
+  <si>
+    <t>IE-01-02</t>
+  </si>
+  <si>
+    <t>System model</t>
+  </si>
+  <si>
+    <t>Model of the power system supporting dynamic analyses</t>
+  </si>
+  <si>
+    <t>IE-01-03</t>
+  </si>
+  <si>
+    <t>historic measurements</t>
+  </si>
+  <si>
+    <t>Historic timeseries of measured generation, consumption and system frequency</t>
+  </si>
+  <si>
+    <t>IE-01-04</t>
+  </si>
+  <si>
+    <t>Fault statistics</t>
+  </si>
+  <si>
+    <t>Statistics of faults in the power system that are relevant for balancing reserve dimensioning</t>
+  </si>
+  <si>
+    <t>IE-01-05</t>
+  </si>
+  <si>
+    <t>Consumption forecasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid-term (timeseries) of the total consumption </t>
+  </si>
+  <si>
+    <t>IE-01-06</t>
+  </si>
+  <si>
+    <t>Design scenarios</t>
+  </si>
+  <si>
+    <t>Expected critical situations (e.g., yearly peak load, separation of parts of the grid, etc.) relevant for balancing reserve dimensioning</t>
+  </si>
+  <si>
+    <t>IE-01-07</t>
+  </si>
+  <si>
+    <t>Required amount of balancing reserve</t>
+  </si>
+  <si>
+    <t>Required number of balancing reserves to ensure a stable operation of the power system, (e.g., 99.975% reliability)</t>
+  </si>
+  <si>
+    <t>Balancing products and requirements</t>
+  </si>
+  <si>
+    <t>Definition of balancing products and requirements comprising: products (duration, min. bid size, direction, tolerances)</t>
+  </si>
+  <si>
+    <t>IE-02-01</t>
+  </si>
+  <si>
+    <t>Network frequency</t>
+  </si>
+  <si>
+    <t>Actual measurements of network frequency measured on-site by DER</t>
+  </si>
+  <si>
+    <t>IE-02-02</t>
+  </si>
+  <si>
+    <t>Frequency deviation</t>
+  </si>
+  <si>
+    <t>Actual frequency deviation detected on-site at DER</t>
+  </si>
+  <si>
+    <t>Grid Frequency</t>
+  </si>
+  <si>
+    <t>IE-03-01</t>
+  </si>
+  <si>
+    <t>Actual measurements of grid frequency centrally acquired by SO</t>
+  </si>
+  <si>
+    <t>IE-03-02</t>
+  </si>
+  <si>
+    <t>Actual frequency deviation detected centrally by SO</t>
+  </si>
+  <si>
+    <t>IE-03-03</t>
+  </si>
+  <si>
+    <t>Updated FRR setpoint</t>
+  </si>
+  <si>
+    <t>Actual FRR setpoint calculated by AGC, sum for all assets participating in FRR service provision</t>
+  </si>
+  <si>
+    <t>Balancing services rules</t>
+  </si>
+  <si>
+    <t>The document describing the rules for participation in balancing services, their technical and administrative requirements and tendered products, as well as the prequalification procedure</t>
+  </si>
+  <si>
+    <t>IE-04-02</t>
+  </si>
+  <si>
+    <t>The flexibility provider (DER operator) applies for the prequalification for the balancing service participation.</t>
+  </si>
+  <si>
+    <t>IE-04-03</t>
+  </si>
+  <si>
+    <t>Request for prequalification of platform</t>
+  </si>
+  <si>
+    <t>Request for prequalification of DER</t>
+  </si>
+  <si>
+    <t>The aggregator (intermediate platform operator) applies for the prequalification for the balancing service participation.</t>
+  </si>
+  <si>
+    <t>IE-04-04</t>
+  </si>
+  <si>
+    <t>The SO confirms the successful prequalification of a DER or platform. Confirmation may need to be renewed after an expiry period.</t>
+  </si>
+  <si>
+    <t>IE-04-05</t>
+  </si>
+  <si>
+    <t>Confirmation of prequalification</t>
+  </si>
+  <si>
+    <t>Rules and schedules of balancing service tender</t>
+  </si>
+  <si>
+    <t>The SO publishes the rules and schedules of balancing service tender, including description of tendered balancing service products.</t>
+  </si>
+  <si>
+    <t>IE-04-06</t>
+  </si>
+  <si>
+    <t>Balancing service bid document</t>
+  </si>
+  <si>
+    <t>The aggregator or flexibility provider participates in the tender for balancing services by submitting one or multiple binding bids. Bids contains ID of bidder, date, timespan, product ID, power, capacity price, energy price.</t>
+  </si>
+  <si>
+    <t>IE-04-07</t>
+  </si>
+  <si>
+    <t>Balancing service bid acceptance</t>
+  </si>
+  <si>
+    <t>The SO informs the bidders about acceptance or rejection of the bids submitted in the tender.</t>
+  </si>
+  <si>
+    <t>IE-05-01</t>
+  </si>
+  <si>
+    <t>The (PLC of the) DER enabled the FCR functionality and starts detecting the frequency deviations.</t>
+  </si>
+  <si>
+    <t>IE-05-02</t>
+  </si>
+  <si>
+    <t>FCR setpoint</t>
+  </si>
+  <si>
+    <t>FCR setpoint calculated on-site by PLC (DER)</t>
+  </si>
+  <si>
+    <t>IE-05-03</t>
+  </si>
+  <si>
+    <t>FCR monitoring data</t>
+  </si>
+  <si>
+    <t>The FCR monitoring data includes local measurements of frequency, active power, calculated setpoint, actual FCR provision. It is submitted in short intervals (e.g., of 2s).</t>
+  </si>
+  <si>
+    <t>IE-05-04</t>
+  </si>
+  <si>
+    <t>FCR validation report</t>
+  </si>
+  <si>
+    <t>The FCR validation report summarizes the quality of FCR service provision of a flexibility provider.</t>
+  </si>
+  <si>
+    <t>IE-06-01</t>
+  </si>
+  <si>
+    <t>FRR provision enabled</t>
+  </si>
+  <si>
+    <t>The (PLC of the) DER enabled the FCR functionality and starts listening for incoming setpoints</t>
+  </si>
+  <si>
+    <t>IE-06-02</t>
+  </si>
+  <si>
+    <t>FRR setpoints for central balancing assets</t>
+  </si>
+  <si>
+    <t>FRR setpoints for central balancing assets (controlled by the SO)</t>
+  </si>
+  <si>
+    <t>IE-06-03</t>
+  </si>
+  <si>
+    <t>FRR setpoint for DER</t>
+  </si>
+  <si>
+    <t>FRR setpoints for DER (controlled by 3rd party flexibility providers)</t>
+  </si>
+  <si>
+    <t>IE-06-04</t>
+  </si>
+  <si>
+    <t>FRR Activation requests</t>
+  </si>
+  <si>
+    <t>IE-06-05</t>
+  </si>
+  <si>
+    <t>Individual FRR setpoints</t>
+  </si>
+  <si>
+    <t>Individual FRR setpoints for DER controlled via an intermedia platform</t>
+  </si>
+  <si>
+    <t>IE-06-06</t>
+  </si>
+  <si>
+    <t>Individual FRR monitoring data</t>
+  </si>
+  <si>
+    <t>IE-06-07</t>
+  </si>
+  <si>
+    <t>Aggregated FRR monitoring data</t>
+  </si>
+  <si>
+    <t>IE-07-01</t>
+  </si>
+  <si>
+    <t>Daily balancing service accounting</t>
+  </si>
+  <si>
+    <t>Accounting of provided balancing energy and related costs (according to balancing service bid document), created on d+1</t>
+  </si>
+  <si>
+    <t>IE-07-02</t>
+  </si>
+  <si>
+    <t>Monthly balancing service accounting and remuneration report</t>
+  </si>
+  <si>
+    <t>Monthly sum of Daily balancing service accounting positions, which are used for remuneration of the flexibility provider</t>
+  </si>
+  <si>
+    <t>IE-08-01</t>
+  </si>
+  <si>
+    <t>Forecast of flexible capacity and costs</t>
+  </si>
+  <si>
+    <t>The forecast of flexible capacity and costs of a DER is generated for the entire upcoming product duration, that is tendered.</t>
+  </si>
+  <si>
+    <t>IE-08-02</t>
+  </si>
+  <si>
+    <t>Flexibility merit order</t>
+  </si>
+  <si>
+    <t>The flexibility merit order sorts the DER’s flexibility forecasts according to their costs (from cheapest to most expensive).</t>
+  </si>
+  <si>
+    <t>IE-08-03</t>
+  </si>
+  <si>
+    <t>Actual flexibility of DER</t>
+  </si>
+  <si>
+    <t>The actual flexibility bandwidth of a DER</t>
+  </si>
+  <si>
+    <t>Area: Energy system, Domain: Transmission, DER, Customer Premises, Zones: Operation, Market</t>
   </si>
   <si>
     <r>
@@ -2044,7 +3358,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Industry’s main purpose is manufacturing of goods or provision of other services. Some industrial assets are additionally able to provide a certain help to the system operator by adjusting their internal manufacturing process and thus increase or decrease the consumption for the time being (load shifting) and help minimizing the frequency deviation. Such industrial energy assets usually have some restrictions, such as limited duration of delivery (e.g., max 4 h), poor controllability (e.g., ON-OFF operation), or can provide such action only at a certain time of the day or year. Therefore, industrial demand response is not considered as a primary source for providing balancing services to the power grid, but they may serve as secondary source for additional support when other services are already fully activated (e.g., for emergency measures).
+      <t xml:space="preserve">
+Industry’s main purpose is manufacturing of goods or provision of other services. Some industrial assets are additionally able to provide a certain help to the system operator by adjusting their internal manufacturing process and thus increase or decrease the consumption for the time being (load shifting) and help minimizing the frequency deviation. Such industrial energy assets usually have some restrictions, such as limited duration of delivery (e.g., max 4 h), poor controllability (e.g., ON-OFF operation), or can provide such action only at a certain time of the day or year. Therefore, industrial demand response is not considered as a primary source for providing balancing services to the power grid, but they may serve as secondary source for additional support when other services are already fully activated (e.g., for emergency measures).
 </t>
     </r>
     <r>
@@ -2067,7 +3382,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Residential customers may have flexible loads that end-users do not necessarily need instantaneously to ensure their comfort, e.g., air-conditioning units and electric heating, but also dishwashers, washing machines, cloth dryers, etc. Optimally controlling the on/off times of these devices, considering local frequency deviations, can help in ensuring the frequency stability. Depending on the characteristics of the device, the activation time and activation duration differ. Heat pumps or air conditioning units can be used for frequency response, considering the heat storage capacity of the building or heat storage in a hot water tank. The activation duration depends upon the stored heat capacity in the building or the tank and the comfort requirements of the end-users. These units can be activated very fast (remote switch-off) but their availability is difficult to forecast. 
+      <t xml:space="preserve">
+Residential customers may have flexible loads that end-users do not necessarily need instantaneously to ensure their comfort, e.g., air-conditioning units and electric heating, but also dishwashers, washing machines, cloth dryers, etc. Optimally controlling the on/off times of these devices, considering local frequency deviations, can help in ensuring the frequency stability. Depending on the characteristics of the device, the activation time and activation duration differ. Heat pumps or air conditioning units can be used for frequency response, considering the heat storage capacity of the building or heat storage in a hot water tank. The activation duration depends upon the stored heat capacity in the building or the tank and the comfort requirements of the end-users. These units can be activated very fast (remote switch-off) but their availability is difficult to forecast. 
 </t>
     </r>
     <r>
@@ -2113,7 +3429,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">The variability of renewable energy sources, such as wind and solar, are causing continuous, small frequency deviations due to their hard to predict short-term dynamics and their lack of synchronous inertia to stabilize the frequency during disturbances. Lowering the output of PV plants (downward regulation) during high frequency periods can support frequency stabilization. If PVs are operated below their maximal inverter power, PV plants can inject additional power into the grid with different activation times, ranging from seconds to minutes during low frequency periods (upward regulation). The latter will result in a reduction of overall generation or require the installation of PV batteries. The activation duration depends on the amount of reserve kept for upward frequency response and will be the result of a cost-benefit analysis, where the outcome depends on the remuneration of the different frequency response products compared to the value of electric energy fed-in by PV. In the last years, much development effort has been made on virtual inertia provided by PV and wind power, which might become state-of-the-art within the next decades. 
+      <t xml:space="preserve">
+The variability of renewable energy sources, such as wind and solar, are causing continuous, small frequency deviations due to their hard to predict short-term dynamics and their lack of synchronous inertia to stabilize the frequency during disturbances. Lowering the output of PV plants (downward regulation) during high frequency periods can support frequency stabilization. If PVs are operated below their maximal inverter power, PV plants can inject additional power into the grid with different activation times, ranging from seconds to minutes during low frequency periods (upward regulation). The latter will result in a reduction of overall generation or require the installation of PV batteries. The activation duration depends on the amount of reserve kept for upward frequency response and will be the result of a cost-benefit analysis, where the outcome depends on the remuneration of the different frequency response products compared to the value of electric energy fed-in by PV. In the last years, much development effort has been made on virtual inertia provided by PV and wind power, which might become state-of-the-art within the next decades. 
 </t>
     </r>
     <r>
@@ -2206,1388 +3523,47 @@
       </rPr>
       <t xml:space="preserve">
 This Use Case relies on the following functions:
-•	Asset contraction and technical preparation, incl. pre-qualification
-•	Detection of frequency deviations
-•	Evaluation of flexibility available from different assets or via intermediate platforms
-•	Contracting balancing service products 
-•	Calculation of setpoints by the AGC of the SO
-•	Flexibility activation through the Flexibility Management and Trading Platform (FMTP)
-•	Monitoring of service provision
-•	Settlement process to remunerate flexibility activation 
-This Use Case supports a technology-agnostic approach for provision of balancing services by central or decentralized energy assets. In the MAESHA project, the following technologies are aimed to be investigated in the scope of the use case demonstration.  
-</t>
+•Asset contraction and technical preparation, incl. pre-qualification
+•Detection of frequency deviations
+•Evaluation of flexibility available from different assets or via intermediate platforms
+•Contracting balancing service products 
+•Calculation of setpoints by the AGC of the SO
+•Flexibility activation through the Flexibility Management and Trading Platform (FMTP)
+•Monitoring of service provision
+•Settlement process to remunerate flexibility activation 
+This Use Case supports a technology-agnostic approach for provision of balancing services by central or decentralized energy assets. In the MAESHA project, the following technologies are aimed to be investigated in the scope of the use case demonstration:
+•Detection of frequency deviations, central by SO or decentral by the DER
+•Frequency regulation by industrial DR
+•Frequency regulation by residential DR via VPP
+•Frequency regulation by Smart charging/V2G
+•Frequency regulation by RES via VPP
+•Frequency regulation by BESS
+•Frequency regulation by P2H system</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Investigated technology options for provision of balancing services</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The following technology options to provision of balancing services are aimed to be supported by the use case:
-•	Detection of frequency deviations, central by SO or decentral by the DER
-•	Frequency regulation by industrial DR
-•	Frequency regulation by residential DR via VPP
-•	Frequency regulation by Smart charging/V2G
-•	Frequency regulation by RES via VPP
-•	Frequency regulation by BESS
-•	Frequency regulation by P2H system</t>
-    </r>
-  </si>
-  <si>
-    <t>Operational guidelines from ENTSO-E</t>
-  </si>
-  <si>
-    <t>Operational Handbook P1-Policy 1: Load-Frequency Control and Performance</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>ENTSO-E</t>
-  </si>
-  <si>
-    <t>https://eepublicdownloads.entsoe.eu/clean-documents/pre2015/publications/entsoe/Operation_Handbook/Policy_1_final.pdf</t>
-  </si>
-  <si>
-    <t>Operational guidelines from the French government</t>
-  </si>
-  <si>
-    <t>Ref-2</t>
-  </si>
-  <si>
-    <t>French standards about system operation</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>French government</t>
-  </si>
-  <si>
-    <t>https://codes.droit.org/PDF/Code%20de%20l'%C3%A9nergie.pdf</t>
-  </si>
-  <si>
-    <t>ENTSO-E Role model</t>
-  </si>
-  <si>
-    <t>Ref-3</t>
-  </si>
-  <si>
-    <t>Role model</t>
-  </si>
-  <si>
-    <t>The Harmonized Role Model</t>
-  </si>
-  <si>
-    <t>Version 2020-01</t>
-  </si>
-  <si>
-    <t>https://www.entsoe.eu/digital/cim/role-models/#harmonised-electricity-role-model</t>
-  </si>
-  <si>
-    <t>Sc1</t>
-  </si>
-  <si>
-    <t>Frequency reserve requirements</t>
-  </si>
-  <si>
-    <t>Calculating the amount of FCR and FRR needed</t>
-  </si>
-  <si>
-    <t>System Operator</t>
-  </si>
-  <si>
-    <t>Long-term planning (yearly activity)</t>
-  </si>
-  <si>
-    <t>Required amount of Inertia, FCR, FRR to be contracted and reserved are defined</t>
-  </si>
-  <si>
-    <t>Need for: 
-- Historic data about electricity system
-- Mid-term consumption forecasts
-- List of planned new DER installations</t>
-  </si>
-  <si>
-    <t>Sc2</t>
-  </si>
-  <si>
-    <t>Detection of the frequency issues - FCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detection of the frequency deviations locally on the site of the flexibility provider </t>
-  </si>
-  <si>
-    <t>Continuous activity</t>
-  </si>
-  <si>
-    <t>Need for high precision frequency meter</t>
-  </si>
-  <si>
-    <t>Frequency deviations are detected on-site</t>
-  </si>
-  <si>
-    <t>Sc3</t>
-  </si>
-  <si>
-    <t>Detection of the frequency issues - FRR</t>
-  </si>
-  <si>
-    <t>Detection of the frequency deviations centrally in the SCADA</t>
-  </si>
-  <si>
-    <t>System Operator, with the help of the AGC</t>
-  </si>
-  <si>
-    <t>Frequency deviations are detected by central AGC</t>
-  </si>
-  <si>
-    <t>Sc4</t>
-  </si>
-  <si>
-    <t>Contracting balancing service products</t>
-  </si>
-  <si>
-    <t>Contractual obligations between the SO (EDM) and the flexibility providers</t>
-  </si>
-  <si>
-    <t>Periodic tender (yearly, monthly, weekly and/or daily)</t>
-  </si>
-  <si>
-    <t>Prequalified DER are available</t>
-  </si>
-  <si>
-    <t>List of available flexible capacity and price (merit order) is available</t>
-  </si>
-  <si>
-    <t>Sc5</t>
-  </si>
-  <si>
-    <t>Flexibility activation through local controller - FCR</t>
-  </si>
-  <si>
-    <t>Activation of the flexibility providers automatically using its local controller</t>
-  </si>
-  <si>
-    <t>Frequency deviation is detected on-site</t>
-  </si>
-  <si>
-    <t>FCR control algorithms are  implemented in on-site controller</t>
-  </si>
-  <si>
-    <t>FCR provision by DER</t>
-  </si>
-  <si>
-    <t>Sc6</t>
-  </si>
-  <si>
-    <t>Flexibility activation through the Flexibility Management and Trading Platform (FMTP) - FRR</t>
-  </si>
-  <si>
-    <t>Activation of the flexibility providers automatically using centralized platform - FMTP</t>
-  </si>
-  <si>
-    <t>Frequency deviation is detected by AGC</t>
-  </si>
-  <si>
-    <t>AGC’s control algorithms are  trained with system characteristics</t>
-  </si>
-  <si>
-    <t>FRR provision by DER</t>
-  </si>
-  <si>
-    <t>Sc7</t>
-  </si>
-  <si>
-    <t>Settlement process to remunerate flexibility activation</t>
-  </si>
-  <si>
-    <t>Validation and settlement of the activation responses</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>Daily or monthly</t>
-  </si>
-  <si>
-    <t>Meter data are available</t>
-  </si>
-  <si>
-    <t>Remuneration of ancillary service provision per DER</t>
-  </si>
-  <si>
-    <t>Sc8</t>
-  </si>
-  <si>
-    <t>Frequency control by flexibility provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The process of flexibility provision by the flexibility provider </t>
-  </si>
-  <si>
-    <t>Reception of activation signal or activation schedule</t>
-  </si>
-  <si>
-    <t>Successful provision of flexibility service</t>
-  </si>
-  <si>
-    <t>Flexibility bid is accepted via FMTP</t>
-  </si>
-  <si>
-    <t>Sc1 - Frequency reserve requirements</t>
-  </si>
-  <si>
-    <t>St1</t>
-  </si>
-  <si>
-    <t>Periodically (yearly)</t>
-  </si>
-  <si>
-    <t>Define desired conditions for grid frequency</t>
-  </si>
-  <si>
-    <t>In a phase of mid-term planning, the SO defines the frequency control strategy, incl. nominal (target) frequency value, frequency bandwidth for operation and frequency thresholds for emergency actions</t>
-  </si>
-  <si>
-    <t>CREATE</t>
-  </si>
-  <si>
-    <t>IE-01-01 (frequency bandwigth and emergency thresholds)</t>
-  </si>
-  <si>
-    <t>R-01-01 (guidelines for operation defined by regulator)</t>
-  </si>
-  <si>
-    <t>St2</t>
-  </si>
-  <si>
-    <t>Collect data of the power system</t>
-  </si>
-  <si>
-    <t>Collect the data to describe the power system (system model), historic measurements (load, frequency) and events (fault statistics)</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>IE-01-02 (system model)
-IE-01-03 (historic measurements)
-IE-01-04 (fault statistics)</t>
-  </si>
-  <si>
-    <t>R-01-02 (historic data about electricity system, load and frequency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St3 </t>
-  </si>
-  <si>
-    <t>Mid-term &amp; long-term forecasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The SO generates mid-term and long-term forecasts of the development of consumption and generation </t>
-  </si>
-  <si>
-    <t>IE-01-05 (mid-term &amp; long-term forecasts)</t>
-  </si>
-  <si>
-    <t>R-01-03 (List of planned new DER installations)</t>
-  </si>
-  <si>
-    <t>St4</t>
-  </si>
-  <si>
-    <t>Define design scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The SO identifies critical situations (e.g., yearly peak load, separation of parts of the grid, etc.) and defines design scenarios comprising all possible critical situations. </t>
-  </si>
-  <si>
-    <t>IE-01-06 (design scenarios)</t>
-  </si>
-  <si>
-    <t>IE-01, IE-02, IE-03, IE-04, IE-05 received</t>
-  </si>
-  <si>
-    <t>St5</t>
-  </si>
-  <si>
-    <t>Calculate the required amount of flexibility- balancing reserve needed on the island - FRR</t>
-  </si>
-  <si>
-    <t>The SO assesses the amount of flexibility (FCR, FRR balancing reserve) required to perform the load-frequency control of the power system of the geographical islands.</t>
-  </si>
-  <si>
-    <t>IE-01-07 (required amount of balancing reserve)</t>
-  </si>
-  <si>
-    <t>IE-01, IE-02, IE-03, IE-04, IE-05, IE-06 received</t>
-  </si>
-  <si>
-    <t>St6</t>
-  </si>
-  <si>
-    <t>St5 finished</t>
-  </si>
-  <si>
-    <t>Define balancing service products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the required amount of flexibility the SO defines appropriate balancing products </t>
-  </si>
-  <si>
-    <t>IE-01-08 (definition of balancing products and requirements)</t>
-  </si>
-  <si>
-    <t>IE-01-07 received</t>
-  </si>
-  <si>
-    <t>Sc2 - Detection of the frequency issues - Frequency Containment Reservce (FCR)</t>
-  </si>
-  <si>
-    <t>Periodically (interval of 1s of faster)</t>
-  </si>
-  <si>
-    <t>Measure the network frequency</t>
-  </si>
-  <si>
-    <t>Energy assets (central assets or DER) capable of providing FCR reserve are equipped with an accurate frequency meter to continuously measure frequency of the point of grid connection in real-time</t>
-  </si>
-  <si>
-    <t>IE-02-01 (Network frequency)</t>
-  </si>
-  <si>
-    <t>R-02-01 (frequency meter on-site)</t>
-  </si>
-  <si>
-    <t>St3</t>
-  </si>
-  <si>
-    <t>New frequency measurement available</t>
-  </si>
-  <si>
-    <t>Submit the measured frequency to the local controller</t>
-  </si>
-  <si>
-    <t>The measured frequency must be sent to the local controller capable of receiving freq. measurements in real-time</t>
-  </si>
-  <si>
-    <t>R-02-02 (on-site PLC)</t>
-  </si>
-  <si>
-    <t>When freq. measurements arrive to the local controller</t>
-  </si>
-  <si>
-    <t>Calculate frequency deviation</t>
-  </si>
-  <si>
-    <t>An algorithm on the PLC compares the measured frequency with the target value and calculates the deviation</t>
-  </si>
-  <si>
-    <t>PLC</t>
-  </si>
-  <si>
-    <t>IE-02-02 (frequency deviation)</t>
-  </si>
-  <si>
-    <t>Sc3 - Detection of the frequency issues - Frequency Restoration Reserve (FRR)</t>
-  </si>
-  <si>
-    <t>Continuously</t>
-  </si>
-  <si>
-    <t>Measure grid frequency</t>
-  </si>
-  <si>
-    <t>An accurate (central) frequency meter located in a major substation (e.g., Longoni, Badamiers) measures frequency of the grid in real-time</t>
-  </si>
-  <si>
-    <t>IE-03-01 (grid frequency)</t>
-  </si>
-  <si>
-    <t>R-03-01 (central frequency meter)</t>
-  </si>
-  <si>
-    <t>Receive frequency measurement</t>
-  </si>
-  <si>
-    <t>The measured frequency is received by the AGC embedded in the SCADA.</t>
-  </si>
-  <si>
-    <t>REPORT</t>
-  </si>
-  <si>
-    <t>R-03-02 (AGC)</t>
-  </si>
-  <si>
-    <t>Frequency measurement received by AGC</t>
-  </si>
-  <si>
-    <t>Measured frequency is stored and available for processing</t>
-  </si>
-  <si>
-    <t>The frequency measurements need to be persisted and available in real time and for later analysis. The SCADA (where AGC is embedded) saved the measurements in a database.</t>
-  </si>
-  <si>
-    <t>R-03-03 (data storage)</t>
-  </si>
-  <si>
-    <t>Calculate the frequency deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate the difference between the current measured frequency and the define nominal (target) frequency (e.g., 50 Hz) </t>
-  </si>
-  <si>
-    <t>IE-03-02 (frequency deviation)</t>
-  </si>
-  <si>
-    <t>Frequency deviation calculated</t>
-  </si>
-  <si>
-    <t>Calculate the new FRR setpoint</t>
-  </si>
-  <si>
-    <t>Based on the actual frequency deviation and its change in time the control algorithm calculates the new FRR setpoint</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
-    <t>IE-03-03 (updated FRR setpoint)</t>
-  </si>
-  <si>
-    <t>R-03-04 (P-f- control algorithm)</t>
-  </si>
-  <si>
-    <t>Sc4 - Contracting balancing service products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After definition of technical require-ments </t>
-  </si>
-  <si>
-    <t>Publish technical and market rules for balancing services</t>
-  </si>
-  <si>
-    <t>The SO publishes the document describing the balancing services, their technical and administrative requirements and tendered products.</t>
-  </si>
-  <si>
-    <t>IE-04-01 (balancing services rules)</t>
-  </si>
-  <si>
-    <t>IE-01-08</t>
-  </si>
-  <si>
-    <t>After reception of balancing service rules</t>
-  </si>
-  <si>
-    <t>Flexibility providers prepare for participation in balancing services</t>
-  </si>
-  <si>
-    <t>(3rd party) flexibility providers able to fulfil the SO’s requirements prepare for participation via the FMTP, directly or by aggregation via an intermediate platform (e.g., analyse available flexible power, identify suitable flexibility services and products, fulfil technical requirements). Finally, the flexibility provider or aggregator requests the prequalification of the DER (if directly connected to the FMTP).</t>
-  </si>
-  <si>
-    <t>EXECUTE</t>
-  </si>
-  <si>
-    <t>Flexibility providers</t>
-  </si>
-  <si>
-    <t>IE-04-02 (Request for prequalification of DER)</t>
-  </si>
-  <si>
-    <t>IE-04-01</t>
-  </si>
-  <si>
-    <t>IE-04-01 available</t>
-  </si>
-  <si>
-    <t>After reception of tender announcement</t>
-  </si>
-  <si>
-    <t>Aggregators prepare for participation in balancing services</t>
-  </si>
-  <si>
-    <t>Aggregators prepare for balancing service provision, implementing the technical requirements and establishing contracts with flexibility providers. Finally, the aggregator requests the prequalification of the intermediate platform.</t>
-  </si>
-  <si>
-    <t>Aggregator</t>
-  </si>
-  <si>
-    <t>IE-04-03 (Request for prequalification of platform)</t>
-  </si>
-  <si>
-    <t>SO received request for prequalification</t>
-  </si>
-  <si>
-    <t>Prequalify flexibility provider</t>
-  </si>
-  <si>
-    <t>The SO and flexibility provider (and aggregator if involved) conduct a series of tests to confirm the technical and administrative capability of the DER (and intermediate platform if involved) to provide the balancing services according to the SO’s requirements. The step is finalized by issuing the confirmation of prequalification by the SO.</t>
-  </si>
-  <si>
-    <t>IE-04-04 (confirmation of prequalification)</t>
-  </si>
-  <si>
-    <t>IE-04-02 or IE-04-03 available</t>
-  </si>
-  <si>
-    <t>Periodically (yearly, monthly, weekly, or daily)</t>
-  </si>
-  <si>
-    <t>Publish tender for balancing services</t>
-  </si>
-  <si>
-    <t>The SO details the balancing market products and starts a tendering process and informs all prequalified flexibility providers about the tender</t>
-  </si>
-  <si>
-    <t>IE-04-05 (rules and schedules of balancing service tender)</t>
-  </si>
-  <si>
-    <t>St5 finalized</t>
-  </si>
-  <si>
-    <t>Submit balancing services bids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The prequalified flexibility providers forecast the available power for the tendered balancing service products and calculate the costs of service provision. Then the most suitable balancing products are identified and balancing service bids are submitted via FMTP. </t>
-  </si>
-  <si>
-    <t>Flexibility provider or aggregator</t>
-  </si>
-  <si>
-    <t>IE-04-06 (balancing service bid document)</t>
-  </si>
-  <si>
-    <t>IE-04-05, R-04-01 (prequalified flexibility providers)</t>
-  </si>
-  <si>
-    <t>St7</t>
-  </si>
-  <si>
-    <t>SO received bid for balancing service provision</t>
-  </si>
-  <si>
-    <t>Contract balancing services</t>
-  </si>
-  <si>
-    <t>The SO selects the most favourable bids for flexibility service provision according to the tendering rules and informs the flexibility providers about acceptance or rejection of their bids via the FMTP. The acceptance of a balancing service bid is equivalent to a legal contract between SO and flexibility provider.</t>
-  </si>
-  <si>
-    <t>IE-04-07 (balancing service bid acceptance)</t>
-  </si>
-  <si>
-    <t>IE-04-06 received</t>
-  </si>
-  <si>
-    <t>Sc5 - Flexibility activation through local controller - FCR</t>
-  </si>
-  <si>
-    <t>Reception of FCR bid acceptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable FCR service </t>
-  </si>
-  <si>
-    <t>The FCR functionality is unlocked via the PLC of the DER during the timespan defined in the accepted FCR bid.</t>
-  </si>
-  <si>
-    <t>IE-05-01 (FCR provision enabled)</t>
-  </si>
-  <si>
-    <t>IE-04-07 (accepted FCR bid)</t>
-  </si>
-  <si>
-    <t>FCR provision enabled</t>
-  </si>
-  <si>
-    <t>Calculate FCR setpoint</t>
-  </si>
-  <si>
-    <t>The PLC calculates the FCR setpoint depending on the frequency deviation (calculated on-site and in real time, see scenario 2) based on an algorithm defined by the SO; e.g., a linear curve PFCR=f(Df)</t>
-  </si>
-  <si>
-    <t>IE-05-02 (FCR setpoint)</t>
-  </si>
-  <si>
-    <t>IE-02-02 (frequency deviation)
-R-05-01 (P(Df) characteristics implemented)</t>
-  </si>
-  <si>
-    <t>FCR setpoint calculated (continuously, e.g., 1s interval)</t>
-  </si>
-  <si>
-    <t>Follow new FCR setpoint</t>
-  </si>
-  <si>
-    <t>The DER adapts the active power feed-in (or consumption) according to the FCR setpoint within the required FAT.</t>
-  </si>
-  <si>
-    <t>DER</t>
-  </si>
-  <si>
-    <t>R-05-02 (DER operative)</t>
-  </si>
-  <si>
-    <t>Continuously (e.g., 1s interval)</t>
-  </si>
-  <si>
-    <t>Send monitoring data to FMTP</t>
-  </si>
-  <si>
-    <t>As long as the FCR service provision is enabled (timespan of the accepted FCR bid), the PLC sends monitoring data to the FMTP, where it is forwarded to the AGC)</t>
-  </si>
-  <si>
-    <t>PLC (DER)</t>
-  </si>
-  <si>
-    <t>R-05-03 (communication. channel between PLC and FMTP)
-R-05-05 (active power meter (on-site))</t>
-  </si>
-  <si>
-    <t>Validate FCR provision</t>
-  </si>
-  <si>
-    <t>The AGC receives the FCR monitoring data and compares the measurements with the expected behaviour.</t>
-  </si>
-  <si>
-    <t>IE-05-04 (FCR validation report)</t>
-  </si>
-  <si>
-    <t>R-05-04 (algorithm to validate FCR performance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE-05-03 (FCR monitoring data) </t>
-  </si>
-  <si>
-    <t>FCR malperformance detected</t>
-  </si>
-  <si>
-    <t>Inform flexibility provider about malperformance</t>
-  </si>
-  <si>
-    <t>The SO informs the flexibility provider about the FCR malperformance and orders immediate correction of the behaviour</t>
-  </si>
-  <si>
-    <t>FCR validation report received</t>
-  </si>
-  <si>
-    <t>Remedy FCR malperformance</t>
-  </si>
-  <si>
-    <t>The flexibility provider updates the DER control algorithms in order to remedy the FCR malperformance and to provide the FCR service according to technical specifications.</t>
-  </si>
-  <si>
-    <t>Sc6 - Flexibility activation through the Flexibility Management and Trading Platform - FRR</t>
-  </si>
-  <si>
-    <t>Reception of FRR bid acceptance</t>
-  </si>
-  <si>
-    <t>Enable FRR service</t>
-  </si>
-  <si>
-    <t>The FRR functionality is unlocked on the intermediate platform and/or the PLC of the DER during the timespan defined in the accepted FRR bid. The PLC starts waiting to receive activation requests from the FMTP or intermediate platform.</t>
-  </si>
-  <si>
-    <t>Intermediate platform, PLC</t>
-  </si>
-  <si>
-    <t>IE-06-01 (FRR provision enabled)</t>
-  </si>
-  <si>
-    <t>IE-04-07 (accepted FRR bid)</t>
-  </si>
-  <si>
-    <t>New FRR setpoint available</t>
-  </si>
-  <si>
-    <t>Dispatch balancing assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The new FRR setpoint is dispatched between central balancing assets (diesel engines operated by the SO) and distributed balancing assets (DER operated by third party). </t>
-  </si>
-  <si>
-    <t>IE-06-02 (setpoints for central balancing assets)
-IE-06-03 (setpoint for DER)</t>
-  </si>
-  <si>
-    <t>R-06-01 (dispatching algorithm)</t>
-  </si>
-  <si>
-    <t>Central assets’ FRR setpoint updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive new FRR setpoints </t>
-  </si>
-  <si>
-    <t>Central balancing assets (operated by the SO) receive their new individual setpoint</t>
-  </si>
-  <si>
-    <t>Central balancing asset (diesel engines)</t>
-  </si>
-  <si>
-    <t>IE-06-02 (setpoints for central balancing assets)</t>
-  </si>
-  <si>
-    <t>R-06-02 (central balancing asset available)</t>
-  </si>
-  <si>
-    <t>St3a</t>
-  </si>
-  <si>
-    <t>St3b</t>
-  </si>
-  <si>
-    <t>Decentral assets’ FRR setpoint updated</t>
-  </si>
-  <si>
-    <t>Receive new FRR setpoints</t>
-  </si>
-  <si>
-    <t>The updated FRR setpoint is received by the FMTP platform.</t>
-  </si>
-  <si>
-    <t>IE-06-03 (setpoint for DER)</t>
-  </si>
-  <si>
-    <t>R-06-03 (FMTP available)
-R-06-07 (comm. channel between AGC and FMTP)</t>
-  </si>
-  <si>
-    <t>FMTP received a new FRR setpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMTP dispatches contracted flexibility providers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The FMTP distributes the received FRR setpoint between the contracted flexibility providers (DERs or intermediate platforms) based on predefined rules (pro-rata or according to merit order), and submits the activation requests (direct setpoint or activation schedule). </t>
-  </si>
-  <si>
-    <t>IE-06-04 (activation requests)</t>
-  </si>
-  <si>
-    <t>R-06-03 (FMTP available)
-R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
-  </si>
-  <si>
-    <t>Intermediate platform receives activation request</t>
-  </si>
-  <si>
-    <t>Intermediate platform distributes activation requests</t>
-  </si>
-  <si>
-    <t>Intermediate platforms</t>
-  </si>
-  <si>
-    <t>IE-06-05 (individual setpoints)</t>
-  </si>
-  <si>
-    <t>The intermediate platform disaggregates the received activation request and forwards the setpoints to the connected DER, which previously indicated availability.</t>
-  </si>
-  <si>
-    <t>R-06-04 (DER available)
-R-06-05 (communication channel between DER and intermediate platform)</t>
-  </si>
-  <si>
-    <t>DER received the activation request</t>
-  </si>
-  <si>
-    <t>The DER changes its generation or consumption according to the received setpoint within the required FAT (details see scenario 8).</t>
-  </si>
-  <si>
-    <t>R-06-04 (DER available)</t>
-  </si>
-  <si>
-    <t>Continuously (e.g., in 2s interval)</t>
-  </si>
-  <si>
-    <t>Send monitoring data to intermediate platform</t>
-  </si>
-  <si>
-    <t>As long as the FRR service provision is enabled (timespan of the accepted FRR bid), the DER sends monitoring data to the intermediate platform.</t>
-  </si>
-  <si>
-    <t>IE-06-06 (individual FRR moni-toring data)</t>
-  </si>
-  <si>
-    <t>R-06-05 (communication channel between DER and intermediate platform)
-R-05-05 (active power meter, on-site)</t>
-  </si>
-  <si>
-    <t>St8</t>
-  </si>
-  <si>
-    <t>Send monitoring data to AGC</t>
-  </si>
-  <si>
-    <t>The intermediate platform receives monitoring data from the connected DER and aggregates the values. The aggregated values are sent to the FMTP.
-Alternatively, large DER send monitoring data directly to the FMTP, without aggregation via an intermediate platform.</t>
-  </si>
-  <si>
-    <t>IE-06-07 (aggregated FRR monitoring data)</t>
-  </si>
-  <si>
-    <t>R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
-  </si>
-  <si>
-    <t>St9</t>
-  </si>
-  <si>
-    <t>St9a</t>
-  </si>
-  <si>
-    <t>Validate FRR provision</t>
-  </si>
-  <si>
-    <t>The FMTP receives the FRR monitoring data and compares the measurements with the expected behaviour.</t>
-  </si>
-  <si>
-    <t>IE-06-08 (FRR validation report)</t>
-  </si>
-  <si>
-    <t>R-06-08 (algorithm to validate FRR performance)</t>
-  </si>
-  <si>
-    <t>St9b</t>
-  </si>
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>In case of doubts, the SO compares FRR monitoring data with (public) meter readings.</t>
-  </si>
-  <si>
-    <t>R-06-09 (meter data)</t>
-  </si>
-  <si>
-    <t>St10</t>
-  </si>
-  <si>
-    <t>FRR malperformance detected</t>
-  </si>
-  <si>
-    <t>The SO informs the flexibility provider about the FRR malperformance and orders immediate correction of the behaviour.</t>
-  </si>
-  <si>
-    <t>St11</t>
-  </si>
-  <si>
-    <t>FRR validation report received</t>
-  </si>
-  <si>
-    <t>Remedy FRR malperformance</t>
-  </si>
-  <si>
-    <t>The flexibility provider updates the DER control algorithms in order to remedy the FRR malperformance and to provide the FRR service according to technical specifications.</t>
-  </si>
-  <si>
-    <t>Sc7-Settlement process to remunerate flexibility activation</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process monitoring data </t>
-  </si>
-  <si>
-    <t>In the morning hours the energy activated during the previous day is calculated individually for each balancing service contract (accepted bid).</t>
-  </si>
-  <si>
-    <t>IE-04-07 (balancing service bid acceptance)
-IE-06-07 (monitoring data)</t>
-  </si>
-  <si>
-    <t>IE-06-08 (FRR validation report)
-IE-05-04 (FCR validation report)</t>
-  </si>
-  <si>
-    <t>After completing previous step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting of balancing service provision </t>
-  </si>
-  <si>
-    <t>The activated energy and reserved capacity (provided by the aggregator or flexibility provider) is accounted per accepted bid and summarized by flexibility provider.</t>
-  </si>
-  <si>
-    <t>IE-07-01 (daily balancing service accounting)</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Remuneration of flexibility service provision</t>
-  </si>
-  <si>
-    <t>The daily remuneration of balancing service provision is summarized for the entire past month and remunerated to each flexibility provider</t>
-  </si>
-  <si>
-    <t>IE-07-02 (monthly balancing service accounting and remuneration report)</t>
-  </si>
-  <si>
-    <t>Sc8-Frequency control by flexibility provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forecast flexible capacity for upcoming tender period </t>
-  </si>
-  <si>
-    <t>The flexibility provider forecasts the amount and costs of the balancing service provision for the next tender period.</t>
-  </si>
-  <si>
-    <t>Flexibility provider (DER)</t>
-  </si>
-  <si>
-    <t>IE-08-01 (forecast of flexible capacity and costs)</t>
-  </si>
-  <si>
-    <t>R-08-01 (Operational forecast of DER)</t>
-  </si>
-  <si>
-    <t>Previous step finalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregator receives flexibility forecast </t>
-  </si>
-  <si>
-    <t>The aggregator receives the flexible capacity &amp; cost forecasts of all contracted flexibility providers (DERs) and creates a merit order of flexibility.</t>
-  </si>
-  <si>
-    <t>Aggregator (intermediary platform)</t>
-  </si>
-  <si>
-    <t>IE-08-02 (flexibility merit order)</t>
-  </si>
-  <si>
-    <t>IE-08-01
-R-06-05 (communication channel between DER and intermediate platform)</t>
-  </si>
-  <si>
-    <t>Participation in balancing service tender</t>
-  </si>
-  <si>
-    <t>The aggregator participates in the balancing service tender, creates bids and submits the bids to the FMTP.
-(See scenario 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid acceptance message received </t>
-  </si>
-  <si>
-    <t>Flexibility reservation request</t>
-  </si>
-  <si>
-    <t>The aggregator informs the connected DER about required flexibility reservation for the next product period and the conditions for balancing service provision.</t>
-  </si>
-  <si>
-    <t>IE-08-02 (Flexibility reservation request)</t>
-  </si>
-  <si>
-    <t>R-06-05 (communication channel between DER and intermediate platform)</t>
-  </si>
-  <si>
-    <t>Flexibility reservation request received</t>
-  </si>
-  <si>
-    <t>Flexibility reservation</t>
-  </si>
-  <si>
-    <t>The DER reserves the requested flexibility for the product period.</t>
-  </si>
-  <si>
-    <t>Real-time flexibility calculation</t>
-  </si>
-  <si>
-    <t>The DER calculates the actual flexibility bandwidth in real time and reports the values to the intermediary platform.</t>
-  </si>
-  <si>
-    <t>IE-08-03 (actual flexibility of DER)</t>
-  </si>
-  <si>
-    <t>Listen to incoming setpoints</t>
-  </si>
-  <si>
-    <t>The PLC receives a setpoint to start an activation</t>
-  </si>
-  <si>
-    <t>Intermediary platform</t>
-  </si>
-  <si>
-    <t>Activation setpoint received by DER</t>
-  </si>
-  <si>
-    <t>Start activation program</t>
-  </si>
-  <si>
-    <t>After receiving a new setpoint (see (see scenario 6), the PLC of the DER initiates the activation program (ramp-up) in order to meet the setpoint received from the intermediary platform within the FAT.</t>
-  </si>
-  <si>
-    <t>The PLC receives a new setpoint to change the power of an activation</t>
-  </si>
-  <si>
-    <t>New activation setpoint received by DER</t>
-  </si>
-  <si>
-    <t>Change activation program</t>
-  </si>
-  <si>
-    <t>The PLC of the DER updates the activation program (ramp-up) in order to meet the new setpoint within the FAT.</t>
-  </si>
-  <si>
-    <t>The PLC receives a setpoint of 0 MW to end the ongoing activation.</t>
-  </si>
-  <si>
-    <t>St12</t>
-  </si>
-  <si>
-    <t>Activation end received by DER</t>
-  </si>
-  <si>
-    <t>End activation program</t>
-  </si>
-  <si>
-    <t>The PLC of the DER initiates the end activation program (ramp-down) in order and the balancing energy provision within the FAT.</t>
-  </si>
-  <si>
-    <t>St13</t>
-  </si>
-  <si>
-    <t>Continuously (e.g., 2s interval)</t>
-  </si>
-  <si>
-    <t>Send monitoring data</t>
-  </si>
-  <si>
-    <t>The DER processes the actual measurements and sends the required monitoring data to the intermediary platform.</t>
-  </si>
-  <si>
-    <t>IE-06-06 (individual FRR monitoring data)</t>
-  </si>
-  <si>
-    <t>R-05-05 (active power meter (on-site))</t>
-  </si>
-  <si>
-    <t>IE-01-01</t>
-  </si>
-  <si>
-    <t>frequency band-width and emergency thresholds</t>
-  </si>
-  <si>
-    <t>Predefined bandwidth of allowed system frequency, including target value (50 Hz) and thresholds for initiating emergency measures</t>
-  </si>
-  <si>
-    <t>IE-01-02</t>
-  </si>
-  <si>
-    <t>System model</t>
-  </si>
-  <si>
-    <t>Model of the power system supporting dynamic analyses</t>
-  </si>
-  <si>
-    <t>IE-01-03</t>
-  </si>
-  <si>
-    <t>historic measurements</t>
-  </si>
-  <si>
-    <t>Historic timeseries of measured generation, consumption and system frequency</t>
-  </si>
-  <si>
-    <t>IE-01-04</t>
-  </si>
-  <si>
-    <t>Fault statistics</t>
-  </si>
-  <si>
-    <t>Statistics of faults in the power system that are relevant for balancing reserve dimensioning</t>
-  </si>
-  <si>
-    <t>IE-01-05</t>
-  </si>
-  <si>
-    <t>Consumption forecasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid-term (timeseries) of the total consumption </t>
-  </si>
-  <si>
-    <t>IE-01-06</t>
-  </si>
-  <si>
-    <t>Design scenarios</t>
-  </si>
-  <si>
-    <t>Expected critical situations (e.g., yearly peak load, separation of parts of the grid, etc.) relevant for balancing reserve dimensioning</t>
-  </si>
-  <si>
-    <t>IE-01-07</t>
-  </si>
-  <si>
-    <t>Required amount of balancing reserve</t>
-  </si>
-  <si>
-    <t>Required number of balancing reserves to ensure a stable operation of the power system, (e.g., 99.975% reliability)</t>
-  </si>
-  <si>
-    <t>Balancing products and requirements</t>
-  </si>
-  <si>
-    <t>Definition of balancing products and requirements comprising: products (duration, min. bid size, direction, tolerances)</t>
-  </si>
-  <si>
-    <t>IE-02-01</t>
-  </si>
-  <si>
-    <t>Network frequency</t>
-  </si>
-  <si>
-    <t>Actual measurements of network frequency measured on-site by DER</t>
-  </si>
-  <si>
-    <t>IE-02-02</t>
-  </si>
-  <si>
-    <t>Frequency deviation</t>
-  </si>
-  <si>
-    <t>Actual frequency deviation detected on-site at DER</t>
-  </si>
-  <si>
-    <t>Grid Frequency</t>
-  </si>
-  <si>
-    <t>IE-03-01</t>
-  </si>
-  <si>
-    <t>Actual measurements of grid frequency centrally acquired by SO</t>
-  </si>
-  <si>
-    <t>IE-03-02</t>
-  </si>
-  <si>
-    <t>Actual frequency deviation detected centrally by SO</t>
-  </si>
-  <si>
-    <t>IE-03-03</t>
-  </si>
-  <si>
-    <t>Updated FRR setpoint</t>
-  </si>
-  <si>
-    <t>Actual FRR setpoint calculated by AGC, sum for all assets participating in FRR service provision</t>
-  </si>
-  <si>
-    <t>Balancing services rules</t>
-  </si>
-  <si>
-    <t>The document describing the rules for participation in balancing services, their technical and administrative requirements and tendered products, as well as the prequalification procedure</t>
-  </si>
-  <si>
-    <t>IE-04-02</t>
-  </si>
-  <si>
-    <t>The flexibility provider (DER operator) applies for the prequalification for the balancing service participation.</t>
-  </si>
-  <si>
-    <t>IE-04-03</t>
-  </si>
-  <si>
-    <t>Request for prequalification of platform</t>
-  </si>
-  <si>
-    <t>Request for prequalification of DER</t>
-  </si>
-  <si>
-    <t>The aggregator (intermediate platform operator) applies for the prequalification for the balancing service participation.</t>
-  </si>
-  <si>
-    <t>IE-04-04</t>
-  </si>
-  <si>
-    <t>The SO confirms the successful prequalification of a DER or platform. Confirmation may need to be renewed after an expiry period.</t>
-  </si>
-  <si>
-    <t>IE-04-05</t>
-  </si>
-  <si>
-    <t>Confirmation of prequalification</t>
-  </si>
-  <si>
-    <t>Rules and schedules of balancing service tender</t>
-  </si>
-  <si>
-    <t>The SO publishes the rules and schedules of balancing service tender, including description of tendered balancing service products.</t>
-  </si>
-  <si>
-    <t>IE-04-06</t>
-  </si>
-  <si>
-    <t>Balancing service bid document</t>
-  </si>
-  <si>
-    <t>The aggregator or flexibility provider participates in the tender for balancing services by submitting one or multiple binding bids. Bids contains ID of bidder, date, timespan, product ID, power, capacity price, energy price.</t>
-  </si>
-  <si>
-    <t>IE-04-07</t>
-  </si>
-  <si>
-    <t>Balancing service bid acceptance</t>
-  </si>
-  <si>
-    <t>The SO informs the bidders about acceptance or rejection of the bids submitted in the tender.</t>
-  </si>
-  <si>
-    <t>IE-05-01</t>
-  </si>
-  <si>
-    <t>The (PLC of the) DER enabled the FCR functionality and starts detecting the frequency deviations.</t>
-  </si>
-  <si>
-    <t>IE-05-02</t>
-  </si>
-  <si>
-    <t>FCR setpoint</t>
-  </si>
-  <si>
-    <t>FCR setpoint calculated on-site by PLC (DER)</t>
-  </si>
-  <si>
-    <t>IE-05-03</t>
-  </si>
-  <si>
-    <t>FCR monitoring data</t>
-  </si>
-  <si>
-    <t>The FCR monitoring data includes local measurements of frequency, active power, calculated setpoint, actual FCR provision. It is submitted in short intervals (e.g., of 2s).</t>
-  </si>
-  <si>
-    <t>IE-05-04</t>
-  </si>
-  <si>
-    <t>FCR validation report</t>
-  </si>
-  <si>
-    <t>The FCR validation report summarizes the quality of FCR service provision of a flexibility provider.</t>
-  </si>
-  <si>
-    <t>IE-06-01</t>
-  </si>
-  <si>
-    <t>FRR provision enabled</t>
-  </si>
-  <si>
-    <t>The (PLC of the) DER enabled the FCR functionality and starts listening for incoming setpoints</t>
-  </si>
-  <si>
-    <t>IE-06-02</t>
-  </si>
-  <si>
-    <t>FRR setpoints for central balancing assets</t>
-  </si>
-  <si>
-    <t>FRR setpoints for central balancing assets (controlled by the SO)</t>
-  </si>
-  <si>
-    <t>IE-06-03</t>
-  </si>
-  <si>
-    <t>FRR setpoint for DER</t>
-  </si>
-  <si>
-    <t>FRR setpoints for DER (controlled by 3rd party flexibility providers)</t>
-  </si>
-  <si>
-    <t>IE-06-04</t>
-  </si>
-  <si>
-    <t>FRR Activation requests</t>
-  </si>
-  <si>
-    <t>IE-06-05</t>
-  </si>
-  <si>
-    <t>Individual FRR setpoints</t>
-  </si>
-  <si>
-    <t>Individual FRR setpoints for DER controlled via an intermedia platform</t>
-  </si>
-  <si>
-    <t>IE-06-06</t>
-  </si>
-  <si>
-    <t>Individual FRR monitoring data</t>
-  </si>
-  <si>
-    <t>Monitoring data of individual DER, which is sent to an intermediate platform 
-Datapoints: active power, baseline, setpoint, FRR activation, control bandwidth</t>
-  </si>
-  <si>
-    <t>IE-06-07</t>
-  </si>
-  <si>
-    <t>Aggregated FRR monitoring data</t>
-  </si>
-  <si>
-    <t>Aggregated monitoring data of a pool of DER (managed by an intermediary platform), which is sent to the FMTP.
-Datapoints: active power, baseline, setpoint, FRR activation, control bandwidth</t>
-  </si>
-  <si>
-    <t>IE-07-01</t>
-  </si>
-  <si>
-    <t>Daily balancing service accounting</t>
-  </si>
-  <si>
-    <t>Accounting of provided balancing energy and related costs (according to balancing service bid document), created on d+1</t>
-  </si>
-  <si>
-    <t>IE-07-02</t>
-  </si>
-  <si>
-    <t>Monthly balancing service accounting and remuneration report</t>
-  </si>
-  <si>
-    <t>Monthly sum of Daily balancing service accounting positions, which are used for remuneration of the flexibility provider</t>
-  </si>
-  <si>
-    <t>IE-08-01</t>
-  </si>
-  <si>
-    <t>Forecast of flexible capacity and costs</t>
-  </si>
-  <si>
-    <t>The forecast of flexible capacity and costs of a DER is generated for the entire upcoming product duration, that is tendered.</t>
-  </si>
-  <si>
-    <t>IE-08-02</t>
-  </si>
-  <si>
-    <t>Flexibility merit order</t>
-  </si>
-  <si>
-    <t>The flexibility merit order sorts the DER’s flexibility forecasts according to their costs (from cheapest to most expensive).</t>
-  </si>
-  <si>
-    <t>IE-08-03</t>
-  </si>
-  <si>
-    <t>Actual flexibility of DER</t>
-  </si>
-  <si>
-    <t>The actual flexibility bandwidth of a DER</t>
+  </si>
+  <si>
+    <t>* Industrial prosumers will be interested in and capable of providing flexibility services to the grid 
+* Residential prosumers will be interested in providing flexibility services to the grid
+* For residential DR: buildings equipped with heating boilers or air-conditioning units with adequate control system in place
+* At least one battery for frequency control will be connected to the grid and to the FMTP
+* Batteries should react upon a control signal to change their power output
+* EV charging stations will be connected to the grid and operating
+* The output of the PV plants can be controlled
+* The PV plants should react upon a control signal to change their power output
+* EDM can update the AGC to communicate FRR setpoints to distributed assets via the FMTP
+* All assets providing FCR must be equipped with on-site frequency measurement devices with high precision.
+* Secure and reliable communication channels supporting bidirectional communication between the distributed assets, intermediate platforms (VPPs, EV charging management), the FMTP and the AGC
+* Contracts between the assets and EDM to ensure legal security during the test period</t>
+  </si>
+  <si>
+    <t>* For Smart charging EV: EVs must be plugged to the EV charging stations to participate in frequency control
+* AGC, FMTP and intermediate platforms are available, functioning, integrated, and tested</t>
+  </si>
+  <si>
+    <t>Monitoring data of individual DER, which is sent to an intermediate platform. Datapoints: active power, baseline, setpoint, FRR activation, control bandwidth</t>
+  </si>
+  <si>
+    <t>Aggregated monitoring data of a pool of DER (managed by an intermediary platform), which is sent to the FMTP. Datapoints: active power, baseline, setpoint, FRR activation, control bandwidth</t>
   </si>
 </sst>
 </file>
@@ -4330,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL90" sqref="AL90"/>
+    <sheetView tabSelected="1" topLeftCell="AC79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG87" sqref="AG87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4430,13 +4406,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>86</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4445,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4464,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -4488,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -4500,7 +4476,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4512,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4532,7 +4508,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -4541,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4550,7 +4526,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4566,7 +4542,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -4575,7 +4551,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>173</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4594,7 +4570,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4606,7 +4582,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="19"/>
@@ -4618,7 +4594,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4630,7 +4606,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -4652,19 +4628,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>97</v>
+        <v>611</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>98</v>
+        <v>612</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4683,7 +4659,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -4692,7 +4668,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -4701,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4710,7 +4686,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
@@ -4719,7 +4695,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -4728,7 +4704,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4749,7 +4725,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -4773,22 +4749,22 @@
         <v>78</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
@@ -4796,10 +4772,10 @@
         <v>79</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>22</v>
@@ -4811,7 +4787,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4820,22 +4796,22 @@
         <v>81</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
@@ -4844,22 +4820,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4900,16 +4876,16 @@
         <v>39</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D44" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -4934,10 +4910,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -4964,64 +4940,64 @@
         <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="F46" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G46" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="I46" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O46" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q46" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="P46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>157</v>
-      </c>
       <c r="R46" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S46" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="U46" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="T46" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="U46" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="V46" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
@@ -5030,128 +5006,128 @@
         <v>42</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F48" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>137</v>
-      </c>
       <c r="H48" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M48" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N48" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="N48" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="O48" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="P48" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>156</v>
-      </c>
       <c r="Q48" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S48" s="26"/>
       <c r="T48" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
@@ -5160,7 +5136,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -5198,13 +5174,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F51" s="18"/>
     </row>
@@ -5214,13 +5190,13 @@
         <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F52" s="18"/>
     </row>
@@ -5230,13 +5206,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F53" s="18"/>
     </row>
@@ -5246,13 +5222,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -5262,13 +5238,13 @@
         <v>49</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F55" s="18"/>
     </row>
@@ -5278,13 +5254,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F56" s="18"/>
     </row>
@@ -5294,13 +5270,13 @@
         <v>51</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F57" s="18"/>
     </row>
@@ -5310,13 +5286,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F58" s="18"/>
     </row>
@@ -5325,7 +5301,7 @@
       <c r="B59" s="6"/>
       <c r="C59" s="21"/>
     </row>
-    <row r="60" spans="1:22" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
@@ -5354,28 +5330,28 @@
         <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -5384,28 +5360,28 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -5414,28 +5390,28 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.35">
@@ -5444,28 +5420,28 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.35">
@@ -5474,28 +5450,28 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="58" x14ac:dyDescent="0.35">
@@ -5504,28 +5480,28 @@
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5534,28 +5510,28 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.35">
@@ -5627,175 +5603,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="S70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="U70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="V70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="W70" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="X70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Z70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AB70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AC70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AD70" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AE70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AH70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AI70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AJ70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AK70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AL70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AM70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AN70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AO70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AP70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AQ70" s="26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AR70" s="26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AS70" s="26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AT70" s="26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AU70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AV70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AW70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AX70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AY70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AZ70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BA70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BB70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5804,175 +5780,175 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="S71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="T71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V71" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="X71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AA71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AB71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AC71" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AD71" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AE71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG71" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AH71" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AI71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AJ71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AK71" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL71" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AM71" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AN71" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AO71" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP71" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="AP71" s="18" t="s">
-        <v>445</v>
-      </c>
       <c r="AQ71" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AR71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AS71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AT71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AU71" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AV71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AW71" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AX71" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AY71" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AZ71" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="BA71" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BB71" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="BC71" s="18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BD71" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="BE71" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="BF71" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="BG71" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="BG71" s="18" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5981,175 +5957,175 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J72" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="K72" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="K72" s="26" t="s">
-        <v>286</v>
-      </c>
       <c r="L72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S72" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="U72" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="V72" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="V72" s="26" t="s">
-        <v>342</v>
-      </c>
       <c r="W72" s="26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="X72" s="26" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Y72" s="26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Z72" s="26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AA72" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AB72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AC72" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AD72" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE72" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="AE72" s="26" t="s">
-        <v>387</v>
-      </c>
       <c r="AF72" s="26" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG72" s="26" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AH72" s="26" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AI72" s="26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AJ72" s="26" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AK72" s="26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AL72" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AM72" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AN72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AO72" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AP72" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="AP72" s="26" t="s">
-        <v>446</v>
-      </c>
       <c r="AQ72" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AR72" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="AR72" s="26" t="s">
-        <v>453</v>
-      </c>
       <c r="AS72" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="AT72" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="AT72" s="26" t="s">
-        <v>462</v>
-      </c>
       <c r="AU72" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AV72" s="26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AW72" s="26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AX72" s="26" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AY72" s="26" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AZ72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BA72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BB72" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="BC72" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD72" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="BC72" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="BD72" s="26" t="s">
-        <v>498</v>
-      </c>
       <c r="BE72" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BF72" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="BG72" s="26" t="s">
         <v>503</v>
-      </c>
-      <c r="BG72" s="26" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -6158,175 +6134,175 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J73" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="K73" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="K73" s="18" t="s">
-        <v>287</v>
-      </c>
       <c r="L73" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="M73" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="M73" s="18" t="s">
-        <v>297</v>
-      </c>
       <c r="N73" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O73" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="P73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="P73" s="26" t="s">
-        <v>309</v>
-      </c>
       <c r="Q73" s="26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="S73" s="26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="U73" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="V73" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="V73" s="26" t="s">
-        <v>343</v>
-      </c>
       <c r="W73" s="26" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="X73" s="26" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Y73" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Z73" s="26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AA73" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB73" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="AB73" s="26" t="s">
-        <v>375</v>
-      </c>
       <c r="AC73" s="26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AD73" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE73" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="AE73" s="26" t="s">
-        <v>388</v>
-      </c>
       <c r="AF73" s="26" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG73" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AH73" s="26" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AI73" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AJ73" s="26" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AK73" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL73" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AM73" s="26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN73" s="26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AO73" s="26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AP73" s="26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AQ73" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR73" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="AR73" s="26" t="s">
-        <v>454</v>
-      </c>
       <c r="AS73" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT73" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="AT73" s="26" t="s">
+      <c r="AU73" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="AU73" s="26" t="s">
-        <v>467</v>
-      </c>
       <c r="AV73" s="26" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AW73" s="26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AX73" s="26" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AY73" s="26" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AZ73" s="26" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="BA73" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="BB73" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="BB73" s="26" t="s">
+      <c r="BC73" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="BD73" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="BC73" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="BD73" s="26" t="s">
-        <v>499</v>
-      </c>
       <c r="BE73" s="26" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="BF73" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="BG73" s="26" t="s">
         <v>504</v>
-      </c>
-      <c r="BG73" s="26" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6335,175 +6311,175 @@
         <v>67</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J74" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="K74" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="K74" s="26" t="s">
-        <v>288</v>
-      </c>
       <c r="L74" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="M74" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="M74" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="N74" s="26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O74" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="P74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="P74" s="26" t="s">
-        <v>310</v>
-      </c>
       <c r="Q74" s="26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="S74" s="26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="U74" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="V74" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="V74" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="W74" s="26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="X74" s="26" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Y74" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Z74" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AA74" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB74" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="AB74" s="26" t="s">
-        <v>376</v>
-      </c>
       <c r="AC74" s="26" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AD74" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE74" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="AE74" s="26" t="s">
-        <v>389</v>
-      </c>
       <c r="AF74" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG74" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AH74" s="26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AI74" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AJ74" s="26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AK74" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL74" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="AL74" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="AM74" s="26" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AN74" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AO74" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AP74" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="AP74" s="26" t="s">
+      <c r="AQ74" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="AQ74" s="26" t="s">
+      <c r="AR74" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="AR74" s="26" t="s">
-        <v>455</v>
-      </c>
       <c r="AS74" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="AT74" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="AT74" s="26" t="s">
+      <c r="AU74" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="AU74" s="26" t="s">
-        <v>468</v>
-      </c>
       <c r="AV74" s="26" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AW74" s="26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AX74" s="26" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AY74" s="26" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AZ74" s="26" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="BA74" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="BB74" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="BB74" s="26" t="s">
+      <c r="BC74" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="BD74" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="BC74" s="26" t="s">
+      <c r="BE74" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="BD74" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="BE74" s="26" t="s">
+      <c r="BF74" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="BF74" s="26" t="s">
+      <c r="BG74" s="26" t="s">
         <v>505</v>
-      </c>
-      <c r="BG74" s="26" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6512,175 +6488,175 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Y75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AB75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AC75" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AD75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AE75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AF75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AH75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AI75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AJ75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AN75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AQ75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AR75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AS75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AT75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AU75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AV75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AW75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AX75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AY75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AZ75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BA75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="BB75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BC75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="BD75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BE75" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="BF75" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BG75" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.35">
@@ -6689,175 +6665,175 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N76" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="O76" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="P76" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="X76" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AB76" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AC76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AD76" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE76" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF76" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG76" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AH76" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AI76" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AJ76" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AK76" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AM76" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN76" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AO76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AP76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AQ76" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AR76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AS76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AT76" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AV76" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BA76" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BC76" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BE76" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -6866,175 +6842,175 @@
         <v>70</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AP77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AQ77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AR77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AS77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AV77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AY77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AZ77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BA77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BB77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BC77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BD77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BE77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -7043,175 +7019,175 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="S78" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="T78" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="T78" s="18" t="s">
-        <v>336</v>
-      </c>
       <c r="U78" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="V78" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="X78" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y78" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AA78" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AB78" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AC78" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AD78" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AE78" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF78" s="26" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG78" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AH78" s="18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AI78" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AJ78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AK78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL78" s="26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM78" s="26" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AN78" s="26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO78" s="26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AP78" s="26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AQ78" s="26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AR78" s="26" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AS78" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="AT78" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="AT78" s="26" t="s">
-        <v>465</v>
-      </c>
       <c r="AU78" s="26" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AV78" s="26" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AW78" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AX78" s="26" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AY78" s="26" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AZ78" s="26" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="BA78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BB78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BC78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BD78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BE78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BF78" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BG78" s="26" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="43.5" x14ac:dyDescent="0.35">
@@ -7220,142 +7196,142 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L79" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M79" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="M79" s="18" t="s">
+      <c r="N79" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="N79" s="26" t="s">
-        <v>304</v>
-      </c>
       <c r="O79" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P79" s="26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="T79" s="26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="V79" s="26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="W79" s="26" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="X79" s="26" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Y79" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Z79" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AA79" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB79" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="AB79" s="26" t="s">
-        <v>378</v>
       </c>
       <c r="AC79" s="26"/>
       <c r="AD79" s="26"/>
       <c r="AE79" s="26" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF79" s="26" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG79" s="26" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AI79" s="26" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AJ79" s="26" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AK79" s="26" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AL79" s="26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AM79" s="26" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AN79" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO79" s="26" t="s">
         <v>440</v>
-      </c>
-      <c r="AO79" s="26" t="s">
-        <v>444</v>
       </c>
       <c r="AP79" s="26"/>
       <c r="AQ79" s="26"/>
       <c r="AR79" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AS79" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT79" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="AS79" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="AT79" s="26" t="s">
-        <v>461</v>
-      </c>
       <c r="AU79" s="26" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AV79" s="26" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AW79" s="26"/>
       <c r="AX79" s="26" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AY79" s="26"/>
       <c r="AZ79" s="26" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="BA79" s="26"/>
       <c r="BB79" s="26"/>
@@ -7364,7 +7340,7 @@
       <c r="BE79" s="26"/>
       <c r="BF79" s="26"/>
       <c r="BG79" s="26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7456,112 +7432,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L82" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="M82" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="M82" s="18" t="s">
+      <c r="N82" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="O82" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="N82" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="O82" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="P82" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="R82" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="S82" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="S82" s="18" t="s">
-        <v>557</v>
-      </c>
       <c r="T82" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="U82" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="U82" s="18" t="s">
-        <v>563</v>
-      </c>
       <c r="V82" s="18" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="X82" s="18" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="Y82" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AA82" s="18" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AB82" s="18" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AC82" s="18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AD82" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AE82" s="18" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AF82" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="AG82" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="AH82" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="AG82" s="18" t="s">
+      <c r="AI82" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="AH82" s="18" t="s">
+      <c r="AJ82" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AI82" s="18" t="s">
+      <c r="AK82" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="AJ82" s="18" t="s">
+      <c r="AL82" s="18" t="s">
         <v>606</v>
-      </c>
-      <c r="AK82" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="AL82" s="18" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7570,112 +7546,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="S83" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="T83" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="U83" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="T83" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="U83" s="18" t="s">
-        <v>564</v>
-      </c>
       <c r="V83" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="W83" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="X83" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Y83" s="18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AA83" s="18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AB83" s="18" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AC83" s="18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AD83" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AE83" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AF83" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG83" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH83" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="AG83" s="18" t="s">
+      <c r="AI83" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="AH83" s="18" t="s">
+      <c r="AJ83" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="AI83" s="18" t="s">
+      <c r="AK83" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="AJ83" s="18" t="s">
+      <c r="AL83" s="18" t="s">
         <v>607</v>
-      </c>
-      <c r="AK83" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="AL83" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7684,110 +7660,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O84" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q84" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="P84" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q84" s="26" t="s">
+      <c r="R84" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="R84" s="26" t="s">
-        <v>556</v>
-      </c>
       <c r="S84" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="T84" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="T84" s="26" t="s">
-        <v>562</v>
-      </c>
       <c r="U84" s="26" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="V84" s="26" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="W84" s="26" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="X84" s="26" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Y84" s="26" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Z84" s="26" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AA84" s="26" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AB84" s="26" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AC84" s="26" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AF84" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG84" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH84" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="AG84" s="26" t="s">
+      <c r="AI84" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="AH84" s="26" t="s">
+      <c r="AJ84" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="AI84" s="26" t="s">
+      <c r="AK84" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="AJ84" s="26" t="s">
+      <c r="AL84" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="AK84" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="AL84" s="26" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47C550-3B15-4C42-9297-8EE7E48B67FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF5768-059A-4AA1-831F-5AE119D9538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEC62559-2" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="595">
   <si>
     <t>1 Description of the use case</t>
   </si>
@@ -1680,37 +1680,19 @@
     <t>Image</t>
   </si>
   <si>
-    <t>BusinessLayer_FrequencyControlUC</t>
-  </si>
-  <si>
     <t>SGAM Function layer of the frequency control use case-specific architecture</t>
   </si>
   <si>
-    <t>FunctionLayer_FrequencyControlUC</t>
-  </si>
-  <si>
     <t>Overview of phases of frequency control after a major outage</t>
   </si>
   <si>
-    <t>FrequencyControlPhasesAfterMajorOutage</t>
-  </si>
-  <si>
     <t>FCR achitecture overview</t>
   </si>
   <si>
-    <t>FCR_Architecture</t>
-  </si>
-  <si>
     <t>FRR achitecture overview</t>
   </si>
   <si>
-    <t>FRR_Architecture</t>
-  </si>
-  <si>
     <t>Architecture overview for frequency control in MAESHA</t>
-  </si>
-  <si>
-    <t>FrequencyControlArchi_OverviewMAESHA</t>
   </si>
   <si>
     <t>Business Actor</t>
@@ -1938,21 +1920,12 @@
     <t>Calculating the amount of FCR and FRR needed</t>
   </si>
   <si>
-    <t>System Operator</t>
-  </si>
-  <si>
     <t>Long-term planning (yearly activity)</t>
   </si>
   <si>
     <t>Required amount of Inertia, FCR, FRR to be contracted and reserved are defined</t>
   </si>
   <si>
-    <t>Need for: 
-- Historic data about electricity system
-- Mid-term consumption forecasts
-- List of planned new DER installations</t>
-  </si>
-  <si>
     <t>Sc2</t>
   </si>
   <si>
@@ -1980,9 +1953,6 @@
     <t>Detection of the frequency deviations centrally in the SCADA</t>
   </si>
   <si>
-    <t>System Operator, with the help of the AGC</t>
-  </si>
-  <si>
     <t>Frequency deviations are detected by central AGC</t>
   </si>
   <si>
@@ -2079,12 +2049,6 @@
     <t>Flexibility bid is accepted via FMTP</t>
   </si>
   <si>
-    <t>Sc1 - Frequency reserve requirements</t>
-  </si>
-  <si>
-    <t>St1</t>
-  </si>
-  <si>
     <t>Periodically (yearly)</t>
   </si>
   <si>
@@ -2101,9 +2065,6 @@
   </si>
   <si>
     <t>R-01-01 (guidelines for operation defined by regulator)</t>
-  </si>
-  <si>
-    <t>St2</t>
   </si>
   <si>
     <t>Collect data of the power system</t>
@@ -2123,9 +2084,6 @@
     <t>R-01-02 (historic data about electricity system, load and frequency)</t>
   </si>
   <si>
-    <t xml:space="preserve">St3 </t>
-  </si>
-  <si>
     <t>Mid-term &amp; long-term forecasts</t>
   </si>
   <si>
@@ -2138,9 +2096,6 @@
     <t>R-01-03 (List of planned new DER installations)</t>
   </si>
   <si>
-    <t>St4</t>
-  </si>
-  <si>
     <t>Define design scenarios</t>
   </si>
   <si>
@@ -2153,9 +2108,6 @@
     <t>IE-01, IE-02, IE-03, IE-04, IE-05 received</t>
   </si>
   <si>
-    <t>St5</t>
-  </si>
-  <si>
     <t>Calculate the required amount of flexibility- balancing reserve needed on the island - FRR</t>
   </si>
   <si>
@@ -2168,9 +2120,6 @@
     <t>IE-01, IE-02, IE-03, IE-04, IE-05, IE-06 received</t>
   </si>
   <si>
-    <t>St6</t>
-  </si>
-  <si>
     <t>St5 finished</t>
   </si>
   <si>
@@ -2186,9 +2135,6 @@
     <t>IE-01-07 received</t>
   </si>
   <si>
-    <t>Sc2 - Detection of the frequency issues - Frequency Containment Reservce (FCR)</t>
-  </si>
-  <si>
     <t>Periodically (interval of 1s of faster)</t>
   </si>
   <si>
@@ -2204,9 +2150,6 @@
     <t>R-02-01 (frequency meter on-site)</t>
   </si>
   <si>
-    <t>St3</t>
-  </si>
-  <si>
     <t>New frequency measurement available</t>
   </si>
   <si>
@@ -2234,9 +2177,6 @@
     <t>IE-02-02 (frequency deviation)</t>
   </si>
   <si>
-    <t>Sc3 - Detection of the frequency issues - Frequency Restoration Reserve (FRR)</t>
-  </si>
-  <si>
     <t>Continuously</t>
   </si>
   <si>
@@ -2303,9 +2243,6 @@
     <t>R-03-04 (P-f- control algorithm)</t>
   </si>
   <si>
-    <t>Sc4 - Contracting balancing service products</t>
-  </si>
-  <si>
     <t xml:space="preserve">After definition of technical require-ments </t>
   </si>
   <si>
@@ -2405,9 +2342,6 @@
     <t>IE-04-05, R-04-01 (prequalified flexibility providers)</t>
   </si>
   <si>
-    <t>St7</t>
-  </si>
-  <si>
     <t>SO received bid for balancing service provision</t>
   </si>
   <si>
@@ -2421,9 +2355,6 @@
   </si>
   <si>
     <t>IE-04-06 received</t>
-  </si>
-  <si>
-    <t>Sc5 - Flexibility activation through local controller - FCR</t>
   </si>
   <si>
     <t>Reception of FCR bid acceptance</t>
@@ -2521,9 +2452,6 @@
     <t>The flexibility provider updates the DER control algorithms in order to remedy the FCR malperformance and to provide the FCR service according to technical specifications.</t>
   </si>
   <si>
-    <t>Sc6 - Flexibility activation through the Flexibility Management and Trading Platform - FRR</t>
-  </si>
-  <si>
     <t>Reception of FRR bid acceptance</t>
   </si>
   <si>
@@ -2576,12 +2504,6 @@
     <t>R-06-02 (central balancing asset available)</t>
   </si>
   <si>
-    <t>St3a</t>
-  </si>
-  <si>
-    <t>St3b</t>
-  </si>
-  <si>
     <t>Decentral assets’ FRR setpoint updated</t>
   </si>
   <si>
@@ -2658,9 +2580,6 @@
 R-05-05 (active power meter, on-site)</t>
   </si>
   <si>
-    <t>St8</t>
-  </si>
-  <si>
     <t>Send monitoring data to AGC</t>
   </si>
   <si>
@@ -2674,12 +2593,6 @@
     <t>R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
   </si>
   <si>
-    <t>St9</t>
-  </si>
-  <si>
-    <t>St9a</t>
-  </si>
-  <si>
     <t>Validate FRR provision</t>
   </si>
   <si>
@@ -2692,9 +2605,6 @@
     <t>R-06-08 (algorithm to validate FRR performance)</t>
   </si>
   <si>
-    <t>St9b</t>
-  </si>
-  <si>
     <t>Yearly</t>
   </si>
   <si>
@@ -2704,18 +2614,12 @@
     <t>R-06-09 (meter data)</t>
   </si>
   <si>
-    <t>St10</t>
-  </si>
-  <si>
     <t>FRR malperformance detected</t>
   </si>
   <si>
     <t>The SO informs the flexibility provider about the FRR malperformance and orders immediate correction of the behaviour.</t>
   </si>
   <si>
-    <t>St11</t>
-  </si>
-  <si>
     <t>FRR validation report received</t>
   </si>
   <si>
@@ -2723,9 +2627,6 @@
   </si>
   <si>
     <t>The flexibility provider updates the DER control algorithms in order to remedy the FRR malperformance and to provide the FRR service according to technical specifications.</t>
-  </si>
-  <si>
-    <t>Sc7-Settlement process to remunerate flexibility activation</t>
   </si>
   <si>
     <t>Daily</t>
@@ -2769,9 +2670,6 @@
     <t>IE-07-02 (monthly balancing service accounting and remuneration report)</t>
   </si>
   <si>
-    <t>Sc8-Frequency control by flexibility provider</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forecast flexible capacity for upcoming tender period </t>
   </si>
   <si>
@@ -2879,9 +2777,6 @@
     <t>The PLC receives a setpoint of 0 MW to end the ongoing activation.</t>
   </si>
   <si>
-    <t>St12</t>
-  </si>
-  <si>
     <t>Activation end received by DER</t>
   </si>
   <si>
@@ -2889,9 +2784,6 @@
   </si>
   <si>
     <t>The PLC of the DER initiates the end activation program (ramp-down) in order and the balancing energy provision within the FAT.</t>
-  </si>
-  <si>
-    <t>St13</t>
   </si>
   <si>
     <t>Continuously (e.g., 2s interval)</t>
@@ -3564,6 +3456,51 @@
   </si>
   <si>
     <t>Aggregated monitoring data of a pool of DER (managed by an intermediary platform), which is sent to the FMTP. Datapoints: active power, baseline, setpoint, FRR activation, control bandwidth</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>Detection of the frequency issues - Frequency Containment Reservce (FCR)</t>
+  </si>
+  <si>
+    <t>Detection of the frequency issues - Frequency Restoration Reserve (FRR)</t>
+  </si>
+  <si>
+    <t>Flexibility activation through the Flexibility Management and Trading Platform - FRR</t>
+  </si>
+  <si>
+    <t>TSO, AGC</t>
+  </si>
+  <si>
+    <t>Need for historical data about electricity system, mid-term consumption forecasts and list of planned new DER installations</t>
+  </si>
+  <si>
+    <t>BusinessLayer_FrequencyControlUC.png</t>
+  </si>
+  <si>
+    <t>FunctionLayer_FrequencyControlUC.png</t>
+  </si>
+  <si>
+    <t>FrequencyControlPhasesAfterMajorOutage.png</t>
+  </si>
+  <si>
+    <t>FCR_Architecture.png</t>
+  </si>
+  <si>
+    <t>FRR_Architecture.png</t>
+  </si>
+  <si>
+    <t>FrequencyControlArchi_OverviewMAESHA.png</t>
   </si>
 </sst>
 </file>
@@ -4306,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG87" sqref="AG87"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4412,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4508,7 +4445,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -4542,7 +4479,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -4551,7 +4488,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4628,7 +4565,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4640,7 +4577,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4752,19 +4689,19 @@
         <v>102</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="F38" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="H38" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
@@ -4820,22 +4757,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>105</v>
+        <v>589</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>107</v>
+        <v>590</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>109</v>
+        <v>591</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>113</v>
+        <v>593</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>115</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4876,16 +4813,16 @@
         <v>39</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -4910,10 +4847,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -4940,64 +4877,64 @@
         <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="F46" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H46" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="L46" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="M46" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="N46" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L46" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="M46" s="18" t="s">
+      <c r="O46" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="N46" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="P46" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R46" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="S46" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="T46" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="U46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="V46" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="S46" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="T46" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="U46" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="V46" s="18" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
@@ -5006,64 +4943,64 @@
         <v>42</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="58" x14ac:dyDescent="0.35">
@@ -5072,62 +5009,62 @@
         <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="F48" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G48" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="K48" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="L48" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="M48" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K48" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="L48" s="26" t="s">
+      <c r="N48" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O48" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="M48" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="N48" s="26" t="s">
+      <c r="P48" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q48" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="O48" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="P48" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q48" s="26" t="s">
-        <v>155</v>
-      </c>
       <c r="R48" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="S48" s="26"/>
       <c r="T48" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
@@ -5136,7 +5073,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -5174,13 +5111,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D51" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="F51" s="18"/>
     </row>
@@ -5190,13 +5127,13 @@
         <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D52" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="F52" s="18"/>
     </row>
@@ -5206,13 +5143,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F53" s="18"/>
     </row>
@@ -5222,13 +5159,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>177</v>
-      </c>
       <c r="E54" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -5244,7 +5181,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F55" s="18"/>
     </row>
@@ -5254,13 +5191,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>178</v>
-      </c>
       <c r="E56" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F56" s="18"/>
     </row>
@@ -5270,13 +5207,13 @@
         <v>51</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F57" s="18"/>
     </row>
@@ -5286,13 +5223,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="E58" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="F58" s="18"/>
     </row>
@@ -5330,28 +5267,28 @@
         <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -5360,28 +5297,28 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -5390,28 +5327,28 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.35">
@@ -5420,28 +5357,28 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>203</v>
+        <v>587</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.35">
@@ -5450,58 +5387,58 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:59" ht="58" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>193</v>
+        <v>588</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5510,28 +5447,28 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.35">
@@ -5603,175 +5540,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>271</v>
+        <v>584</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>271</v>
+        <v>584</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>271</v>
+        <v>584</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="R70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="S70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="U70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="V70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="W70" s="26" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="X70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="Y70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="Z70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="AA70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="AB70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="AC70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="AD70" s="26" t="s">
-        <v>350</v>
+        <v>203</v>
       </c>
       <c r="AE70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AF70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AG70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AH70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AI70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AJ70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AK70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AL70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AM70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AN70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AO70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AP70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AQ70" s="26" t="s">
-        <v>382</v>
+        <v>586</v>
       </c>
       <c r="AR70" s="26" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="AS70" s="26" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="AT70" s="26" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="AU70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AV70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AW70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AX70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AY70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="AZ70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BA70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BB70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>462</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5779,176 +5716,176 @@
       <c r="B71" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="M71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="N71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="O71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="P71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="R71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="S71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="T71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="U71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="V71" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="W71" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="X71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC71" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD71" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF71" s="18" t="s">
-        <v>244</v>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="18">
+        <v>2</v>
+      </c>
+      <c r="E71" s="18">
+        <v>3</v>
+      </c>
+      <c r="F71" s="18">
+        <v>4</v>
+      </c>
+      <c r="G71" s="18">
+        <v>5</v>
+      </c>
+      <c r="H71" s="18">
+        <v>6</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1</v>
+      </c>
+      <c r="J71" s="18">
+        <v>2</v>
+      </c>
+      <c r="K71" s="18">
+        <v>3</v>
+      </c>
+      <c r="L71" s="18">
+        <v>1</v>
+      </c>
+      <c r="M71" s="18">
+        <v>2</v>
+      </c>
+      <c r="N71" s="18">
+        <v>3</v>
+      </c>
+      <c r="O71" s="18">
+        <v>4</v>
+      </c>
+      <c r="P71" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="18">
+        <v>1</v>
+      </c>
+      <c r="R71" s="18">
+        <v>2</v>
+      </c>
+      <c r="S71" s="18">
+        <v>3</v>
+      </c>
+      <c r="T71" s="18">
+        <v>4</v>
+      </c>
+      <c r="U71" s="18">
+        <v>5</v>
+      </c>
+      <c r="V71" s="18">
+        <v>6</v>
+      </c>
+      <c r="W71" s="18">
+        <v>7</v>
+      </c>
+      <c r="X71" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA71" s="18">
+        <v>4</v>
+      </c>
+      <c r="AB71" s="18">
+        <v>5</v>
+      </c>
+      <c r="AC71" s="18">
+        <v>6</v>
+      </c>
+      <c r="AD71" s="18">
+        <v>7</v>
+      </c>
+      <c r="AE71" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="18">
+        <v>2</v>
       </c>
       <c r="AG71" s="18" t="s">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="AH71" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="AI71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK71" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL71" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM71" s="18" t="s">
-        <v>426</v>
+        <v>581</v>
+      </c>
+      <c r="AI71" s="18">
+        <v>4</v>
+      </c>
+      <c r="AJ71" s="18">
+        <v>5</v>
+      </c>
+      <c r="AK71" s="18">
+        <v>6</v>
+      </c>
+      <c r="AL71" s="18">
+        <v>7</v>
+      </c>
+      <c r="AM71" s="18">
+        <v>8</v>
       </c>
       <c r="AN71" s="18" t="s">
-        <v>432</v>
+        <v>582</v>
       </c>
       <c r="AO71" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="AP71" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="AQ71" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="AR71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="AT71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU71" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV71" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="AW71" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX71" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AY71" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ71" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA71" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="BB71" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="BC71" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="BD71" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="BE71" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="BF71" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="BG71" s="18" t="s">
-        <v>502</v>
+        <v>583</v>
+      </c>
+      <c r="AP71" s="18">
+        <v>10</v>
+      </c>
+      <c r="AQ71" s="18">
+        <v>11</v>
+      </c>
+      <c r="AR71" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS71" s="18">
+        <v>2</v>
+      </c>
+      <c r="AT71" s="18">
+        <v>3</v>
+      </c>
+      <c r="AU71" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV71" s="18">
+        <v>2</v>
+      </c>
+      <c r="AW71" s="18">
+        <v>3</v>
+      </c>
+      <c r="AX71" s="18">
+        <v>4</v>
+      </c>
+      <c r="AY71" s="18">
+        <v>5</v>
+      </c>
+      <c r="AZ71" s="18">
+        <v>6</v>
+      </c>
+      <c r="BA71" s="18">
+        <v>7</v>
+      </c>
+      <c r="BB71" s="18">
+        <v>8</v>
+      </c>
+      <c r="BC71" s="18">
+        <v>9</v>
+      </c>
+      <c r="BD71" s="18">
+        <v>10</v>
+      </c>
+      <c r="BE71" s="18">
+        <v>11</v>
+      </c>
+      <c r="BF71" s="18">
+        <v>12</v>
+      </c>
+      <c r="BG71" s="18">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5957,175 +5894,175 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="J72" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="N72" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="K72" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="M72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="N72" s="26" t="s">
-        <v>297</v>
-      </c>
       <c r="O72" s="26" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="P72" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q72" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="R72" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="S72" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="Q72" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="R72" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="S72" s="26" t="s">
+      <c r="T72" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="U72" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="V72" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="W72" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="T72" s="26" t="s">
+      <c r="X72" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="U72" s="26" t="s">
+      <c r="Y72" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="V72" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="W72" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="X72" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y72" s="26" t="s">
-        <v>356</v>
-      </c>
       <c r="Z72" s="26" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AA72" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC72" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD72" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE72" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF72" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="AB72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC72" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD72" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE72" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF72" s="26" t="s">
-        <v>389</v>
-      </c>
       <c r="AG72" s="26" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="AH72" s="26" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="AI72" s="26" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="AJ72" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK72" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL72" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM72" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO72" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP72" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="AK72" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL72" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="AM72" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="AN72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO72" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="AP72" s="26" t="s">
-        <v>442</v>
-      </c>
       <c r="AQ72" s="26" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="AR72" s="26" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AS72" s="26" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="AT72" s="26" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="AU72" s="26" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="AV72" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AW72" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX72" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AY72" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="AZ72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB72" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="BC72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD72" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="BE72" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="BF72" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="BG72" s="26" t="s">
         <v>468</v>
-      </c>
-      <c r="AW72" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="AX72" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="AY72" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="AZ72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="BA72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB72" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="BC72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="BD72" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="BE72" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="BF72" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="BG72" s="26" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -6134,175 +6071,175 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E73" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="I73" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="J73" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="J73" s="26" t="s">
+      <c r="K73" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="N73" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="K73" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="N73" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="O73" s="26" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="P73" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q73" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="R73" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="S73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="Q73" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="R73" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="S73" s="26" t="s">
+      <c r="T73" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="U73" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="V73" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="W73" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="T73" s="26" t="s">
+      <c r="X73" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="U73" s="26" t="s">
+      <c r="Y73" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="V73" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="W73" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="X73" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y73" s="26" t="s">
-        <v>357</v>
-      </c>
       <c r="Z73" s="26" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AA73" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB73" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC73" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD73" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE73" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF73" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="AB73" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC73" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD73" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE73" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF73" s="26" t="s">
-        <v>390</v>
-      </c>
       <c r="AG73" s="26" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="AH73" s="26" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="AI73" s="26" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="AJ73" s="26" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="AK73" s="26" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AL73" s="26" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="AM73" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN73" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO73" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP73" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ73" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR73" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS73" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="AT73" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="AN73" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="AO73" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="AP73" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ73" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="AR73" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="AS73" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="AT73" s="26" t="s">
-        <v>459</v>
-      </c>
       <c r="AU73" s="26" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AV73" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="AW73" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX73" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AY73" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="AZ73" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="BA73" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="BB73" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC73" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="BD73" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="BE73" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="BF73" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG73" s="26" t="s">
         <v>469</v>
-      </c>
-      <c r="AW73" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="AX73" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="AY73" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="AZ73" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="BA73" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="BB73" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="BC73" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="BD73" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="BE73" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="BF73" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="BG73" s="26" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6311,175 +6248,175 @@
         <v>67</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E74" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="I74" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="J74" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="H74" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="26" t="s">
+      <c r="K74" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="N74" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="K74" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="M74" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>299</v>
-      </c>
       <c r="O74" s="26" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="P74" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q74" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="R74" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="S74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="Q74" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="R74" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="S74" s="26" t="s">
+      <c r="T74" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="U74" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="V74" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="W74" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="T74" s="26" t="s">
+      <c r="X74" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="U74" s="26" t="s">
+      <c r="Y74" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="V74" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="W74" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="X74" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y74" s="26" t="s">
-        <v>358</v>
-      </c>
       <c r="Z74" s="26" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AA74" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB74" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC74" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD74" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE74" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF74" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="AB74" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC74" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD74" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE74" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF74" s="26" t="s">
+      <c r="AG74" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH74" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI74" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ74" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="AG74" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="AH74" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI74" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="AJ74" s="26" t="s">
+      <c r="AK74" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="AL74" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM74" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN74" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AO74" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP74" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ74" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="AK74" s="26" t="s">
+      <c r="AR74" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="AL74" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM74" s="26" t="s">
+      <c r="AS74" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT74" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="AN74" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AO74" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="AP74" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="AQ74" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="AR74" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="AS74" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="AT74" s="26" t="s">
+      <c r="AU74" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="AV74" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="AW74" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX74" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AY74" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AZ74" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA74" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="BB74" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="BC74" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="AU74" s="26" t="s">
+      <c r="BD74" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="BE74" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="AV74" s="26" t="s">
+      <c r="BF74" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="BG74" s="26" t="s">
         <v>470</v>
-      </c>
-      <c r="AW74" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="AX74" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="AY74" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="AZ74" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="BA74" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="BB74" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="BC74" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="BD74" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="BE74" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="BF74" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="BG74" s="26" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6488,175 +6425,175 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="X75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Y75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AA75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AC75" s="18" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AD75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AE75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AF75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AG75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AH75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AI75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AJ75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AL75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AM75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AN75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AQ75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AR75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AS75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AT75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AU75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AV75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AW75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AX75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AY75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="AZ75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="BA75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="BB75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="BC75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="BD75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="BE75" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="BF75" s="18" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="BG75" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.35">
@@ -6665,175 +6602,175 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="T76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="X76" s="18" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="AB76" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AC76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AD76" s="18" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AE76" s="18" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="AF76" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AG76" s="18" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="AH76" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AI76" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AJ76" s="18" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="AK76" s="18" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="AM76" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AN76" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AO76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AP76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AQ76" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AR76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AS76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AT76" s="18" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="AV76" s="18" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="BA76" s="18" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="BC76" s="18" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="BE76" s="18" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -7019,175 +6956,175 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D78" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="H78" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="I78" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G78" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>275</v>
-      </c>
       <c r="J78" s="18" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="P78" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R78" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="S78" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="Q78" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="R78" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="S78" s="26" t="s">
-        <v>328</v>
-      </c>
       <c r="T78" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="U78" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="V78" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="W78" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="X78" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="U78" s="26" t="s">
+      <c r="Y78" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="V78" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="W78" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="X78" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y78" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="Z78" s="18" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="AA78" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB78" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC78" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD78" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE78" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF78" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG78" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="AB78" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC78" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD78" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE78" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF78" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG78" s="18" t="s">
-        <v>398</v>
-      </c>
       <c r="AH78" s="18" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="AI78" s="18" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="AJ78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="AK78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="AL78" s="26" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="AM78" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN78" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="AO78" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP78" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ78" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR78" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="AS78" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="AT78" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="AN78" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AO78" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AP78" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AQ78" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AR78" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="AS78" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="AT78" s="26" t="s">
-        <v>461</v>
-      </c>
       <c r="AU78" s="26" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="AV78" s="26" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="AW78" s="26" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="AX78" s="26" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="AY78" s="26" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="AZ78" s="26" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="BA78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BB78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BC78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BD78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BE78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BF78" s="26" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="BG78" s="26" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="43.5" x14ac:dyDescent="0.35">
@@ -7196,142 +7133,142 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="H79" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="I79" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G79" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="J79" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="L79" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="N79" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="K79" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="L79" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="M79" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="N79" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="O79" s="18" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="P79" s="26" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="R79" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="S79" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="T79" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="U79" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="V79" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="S79" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="T79" s="26" t="s">
+      <c r="W79" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="X79" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="U79" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="V79" s="26" t="s">
+      <c r="Y79" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z79" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="W79" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="X79" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y79" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z79" s="26" t="s">
-        <v>365</v>
-      </c>
       <c r="AA79" s="26" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AB79" s="26" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="AC79" s="26"/>
       <c r="AD79" s="26"/>
       <c r="AE79" s="26" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="AF79" s="26" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="AG79" s="26" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="AI79" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ79" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK79" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL79" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM79" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN79" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO79" s="26" t="s">
         <v>411</v>
-      </c>
-      <c r="AJ79" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AK79" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="AL79" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="AM79" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN79" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="AO79" s="26" t="s">
-        <v>440</v>
       </c>
       <c r="AP79" s="26"/>
       <c r="AQ79" s="26"/>
       <c r="AR79" s="26" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="AS79" s="26" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="AT79" s="26" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="AU79" s="26" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="AV79" s="26" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="AW79" s="26"/>
       <c r="AX79" s="26" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="AY79" s="26"/>
       <c r="AZ79" s="26" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="BA79" s="26"/>
       <c r="BB79" s="26"/>
@@ -7340,7 +7277,7 @@
       <c r="BE79" s="26"/>
       <c r="BF79" s="26"/>
       <c r="BG79" s="26" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7432,112 +7369,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="E82" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="L82" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="O82" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="P82" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q82" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="R82" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="G82" s="18" t="s">
+      <c r="S82" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="T82" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="H82" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="M82" s="18" t="s">
+      <c r="U82" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="V82" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="W82" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="X82" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y82" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z82" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="N82" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="O82" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="P82" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q82" s="18" t="s">
+      <c r="AA82" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB82" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC82" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="R82" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="S82" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="T82" s="18" t="s">
+      <c r="AD82" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE82" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF82" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="U82" s="18" t="s">
+      <c r="AG82" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="AH82" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="V82" s="18" t="s">
+      <c r="AI82" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="W82" s="18" t="s">
+      <c r="AJ82" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="X82" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y82" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z82" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA82" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="AB82" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="AC82" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="AD82" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE82" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF82" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="AG82" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="AH82" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="AI82" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="AJ82" s="18" t="s">
-        <v>600</v>
-      </c>
       <c r="AK82" s="18" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="AL82" s="18" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7546,112 +7483,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="E83" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="K83" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="L83" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="M83" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O83" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q83" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="R83" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="F83" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="S83" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="H83" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="M83" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="O83" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="P83" s="18" t="s">
+      <c r="T83" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="U83" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="V83" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="W83" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y83" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z83" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA83" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB83" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="Q83" s="18" t="s">
+      <c r="AC83" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD83" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="R83" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="S83" s="18" t="s">
+      <c r="AE83" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF83" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="T83" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="U83" s="18" t="s">
+      <c r="AG83" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH83" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="V83" s="18" t="s">
+      <c r="AI83" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="W83" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="X83" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y83" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z83" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA83" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB83" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="AC83" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD83" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="AE83" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="AF83" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="AG83" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH83" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="AI83" s="18" t="s">
-        <v>598</v>
-      </c>
       <c r="AJ83" s="18" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="AK83" s="18" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="AL83" s="18" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7660,110 +7597,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D84" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="K84" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="N84" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="O84" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q84" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="E84" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="F84" s="26" t="s">
+      <c r="R84" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="S84" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="G84" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="I84" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="K84" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="L84" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="M84" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="O84" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="P84" s="26" t="s">
+      <c r="T84" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="U84" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="V84" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="W84" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="X84" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y84" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z84" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA84" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB84" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="Q84" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="R84" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="S84" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="T84" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="U84" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="V84" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="W84" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="X84" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="Y84" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z84" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA84" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="AB84" s="26" t="s">
-        <v>581</v>
-      </c>
       <c r="AC84" s="26" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="AF84" s="26" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="AG84" s="26" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="AH84" s="26" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="AI84" s="26" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="AJ84" s="26" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="AK84" s="26" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="AL84" s="26" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF5768-059A-4AA1-831F-5AE119D9538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3AC089-06B8-4A17-A9FC-0BE4304463C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="563">
   <si>
     <t>1 Description of the use case</t>
   </si>
@@ -2064,9 +2064,6 @@
     <t>IE-01-01 (frequency bandwigth and emergency thresholds)</t>
   </si>
   <si>
-    <t>R-01-01 (guidelines for operation defined by regulator)</t>
-  </si>
-  <si>
     <t>Collect data of the power system</t>
   </si>
   <si>
@@ -2081,9 +2078,6 @@
 IE-01-04 (fault statistics)</t>
   </si>
   <si>
-    <t>R-01-02 (historic data about electricity system, load and frequency)</t>
-  </si>
-  <si>
     <t>Mid-term &amp; long-term forecasts</t>
   </si>
   <si>
@@ -2093,9 +2087,6 @@
     <t>IE-01-05 (mid-term &amp; long-term forecasts)</t>
   </si>
   <si>
-    <t>R-01-03 (List of planned new DER installations)</t>
-  </si>
-  <si>
     <t>Define design scenarios</t>
   </si>
   <si>
@@ -2105,9 +2096,6 @@
     <t>IE-01-06 (design scenarios)</t>
   </si>
   <si>
-    <t>IE-01, IE-02, IE-03, IE-04, IE-05 received</t>
-  </si>
-  <si>
     <t>Calculate the required amount of flexibility- balancing reserve needed on the island - FRR</t>
   </si>
   <si>
@@ -2117,9 +2105,6 @@
     <t>IE-01-07 (required amount of balancing reserve)</t>
   </si>
   <si>
-    <t>IE-01, IE-02, IE-03, IE-04, IE-05, IE-06 received</t>
-  </si>
-  <si>
     <t>St5 finished</t>
   </si>
   <si>
@@ -2132,9 +2117,6 @@
     <t>IE-01-08 (definition of balancing products and requirements)</t>
   </si>
   <si>
-    <t>IE-01-07 received</t>
-  </si>
-  <si>
     <t>Periodically (interval of 1s of faster)</t>
   </si>
   <si>
@@ -2147,9 +2129,6 @@
     <t>IE-02-01 (Network frequency)</t>
   </si>
   <si>
-    <t>R-02-01 (frequency meter on-site)</t>
-  </si>
-  <si>
     <t>New frequency measurement available</t>
   </si>
   <si>
@@ -2159,9 +2138,6 @@
     <t>The measured frequency must be sent to the local controller capable of receiving freq. measurements in real-time</t>
   </si>
   <si>
-    <t>R-02-02 (on-site PLC)</t>
-  </si>
-  <si>
     <t>When freq. measurements arrive to the local controller</t>
   </si>
   <si>
@@ -2189,9 +2165,6 @@
     <t>IE-03-01 (grid frequency)</t>
   </si>
   <si>
-    <t>R-03-01 (central frequency meter)</t>
-  </si>
-  <si>
     <t>Receive frequency measurement</t>
   </si>
   <si>
@@ -2201,9 +2174,6 @@
     <t>REPORT</t>
   </si>
   <si>
-    <t>R-03-02 (AGC)</t>
-  </si>
-  <si>
     <t>Frequency measurement received by AGC</t>
   </si>
   <si>
@@ -2213,9 +2183,6 @@
     <t>The frequency measurements need to be persisted and available in real time and for later analysis. The SCADA (where AGC is embedded) saved the measurements in a database.</t>
   </si>
   <si>
-    <t>R-03-03 (data storage)</t>
-  </si>
-  <si>
     <t>Calculate the frequency deviation</t>
   </si>
   <si>
@@ -2240,9 +2207,6 @@
     <t>IE-03-03 (updated FRR setpoint)</t>
   </si>
   <si>
-    <t>R-03-04 (P-f- control algorithm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">After definition of technical require-ments </t>
   </si>
   <si>
@@ -2279,9 +2243,6 @@
     <t>IE-04-01</t>
   </si>
   <si>
-    <t>IE-04-01 available</t>
-  </si>
-  <si>
     <t>After reception of tender announcement</t>
   </si>
   <si>
@@ -2309,9 +2270,6 @@
     <t>IE-04-04 (confirmation of prequalification)</t>
   </si>
   <si>
-    <t>IE-04-02 or IE-04-03 available</t>
-  </si>
-  <si>
     <t>Periodically (yearly, monthly, weekly, or daily)</t>
   </si>
   <si>
@@ -2339,9 +2297,6 @@
     <t>IE-04-06 (balancing service bid document)</t>
   </si>
   <si>
-    <t>IE-04-05, R-04-01 (prequalified flexibility providers)</t>
-  </si>
-  <si>
     <t>SO received bid for balancing service provision</t>
   </si>
   <si>
@@ -2354,9 +2309,6 @@
     <t>IE-04-07 (balancing service bid acceptance)</t>
   </si>
   <si>
-    <t>IE-04-06 received</t>
-  </si>
-  <si>
     <t>Reception of FCR bid acceptance</t>
   </si>
   <si>
@@ -2369,9 +2321,6 @@
     <t>IE-05-01 (FCR provision enabled)</t>
   </si>
   <si>
-    <t>IE-04-07 (accepted FCR bid)</t>
-  </si>
-  <si>
     <t>FCR provision enabled</t>
   </si>
   <si>
@@ -2384,10 +2333,6 @@
     <t>IE-05-02 (FCR setpoint)</t>
   </si>
   <si>
-    <t>IE-02-02 (frequency deviation)
-R-05-01 (P(Df) characteristics implemented)</t>
-  </si>
-  <si>
     <t>FCR setpoint calculated (continuously, e.g., 1s interval)</t>
   </si>
   <si>
@@ -2400,9 +2345,6 @@
     <t>DER</t>
   </si>
   <si>
-    <t>R-05-02 (DER operative)</t>
-  </si>
-  <si>
     <t>Continuously (e.g., 1s interval)</t>
   </si>
   <si>
@@ -2415,10 +2357,6 @@
     <t>PLC (DER)</t>
   </si>
   <si>
-    <t>R-05-03 (communication. channel between PLC and FMTP)
-R-05-05 (active power meter (on-site))</t>
-  </si>
-  <si>
     <t>Validate FCR provision</t>
   </si>
   <si>
@@ -2428,9 +2366,6 @@
     <t>IE-05-04 (FCR validation report)</t>
   </si>
   <si>
-    <t>R-05-04 (algorithm to validate FCR performance)</t>
-  </si>
-  <si>
     <t xml:space="preserve">IE-05-03 (FCR monitoring data) </t>
   </si>
   <si>
@@ -2465,9 +2400,6 @@
   </si>
   <si>
     <t>IE-06-01 (FRR provision enabled)</t>
-  </si>
-  <si>
-    <t>IE-04-07 (accepted FRR bid)</t>
   </si>
   <si>
     <t>New FRR setpoint available</t>
@@ -2483,9 +2415,6 @@
 IE-06-03 (setpoint for DER)</t>
   </si>
   <si>
-    <t>R-06-01 (dispatching algorithm)</t>
-  </si>
-  <si>
     <t>Central assets’ FRR setpoint updated</t>
   </si>
   <si>
@@ -2501,9 +2430,6 @@
     <t>IE-06-02 (setpoints for central balancing assets)</t>
   </si>
   <si>
-    <t>R-06-02 (central balancing asset available)</t>
-  </si>
-  <si>
     <t>Decentral assets’ FRR setpoint updated</t>
   </si>
   <si>
@@ -2516,10 +2442,6 @@
     <t>IE-06-03 (setpoint for DER)</t>
   </si>
   <si>
-    <t>R-06-03 (FMTP available)
-R-06-07 (comm. channel between AGC and FMTP)</t>
-  </si>
-  <si>
     <t>FMTP received a new FRR setpoint</t>
   </si>
   <si>
@@ -2532,10 +2454,6 @@
     <t>IE-06-04 (activation requests)</t>
   </si>
   <si>
-    <t>R-06-03 (FMTP available)
-R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
-  </si>
-  <si>
     <t>Intermediate platform receives activation request</t>
   </si>
   <si>
@@ -2551,19 +2469,12 @@
     <t>The intermediate platform disaggregates the received activation request and forwards the setpoints to the connected DER, which previously indicated availability.</t>
   </si>
   <si>
-    <t>R-06-04 (DER available)
-R-06-05 (communication channel between DER and intermediate platform)</t>
-  </si>
-  <si>
     <t>DER received the activation request</t>
   </si>
   <si>
     <t>The DER changes its generation or consumption according to the received setpoint within the required FAT (details see scenario 8).</t>
   </si>
   <si>
-    <t>R-06-04 (DER available)</t>
-  </si>
-  <si>
     <t>Continuously (e.g., in 2s interval)</t>
   </si>
   <si>
@@ -2574,10 +2485,6 @@
   </si>
   <si>
     <t>IE-06-06 (individual FRR moni-toring data)</t>
-  </si>
-  <si>
-    <t>R-06-05 (communication channel between DER and intermediate platform)
-R-05-05 (active power meter, on-site)</t>
   </si>
   <si>
     <t>Send monitoring data to AGC</t>
@@ -2590,9 +2497,6 @@
     <t>IE-06-07 (aggregated FRR monitoring data)</t>
   </si>
   <si>
-    <t>R-06-06 (communication channel between FMTP and intermediate platforms or large DER)</t>
-  </si>
-  <si>
     <t>Validate FRR provision</t>
   </si>
   <si>
@@ -2602,16 +2506,10 @@
     <t>IE-06-08 (FRR validation report)</t>
   </si>
   <si>
-    <t>R-06-08 (algorithm to validate FRR performance)</t>
-  </si>
-  <si>
     <t>Yearly</t>
   </si>
   <si>
     <t>In case of doubts, the SO compares FRR monitoring data with (public) meter readings.</t>
-  </si>
-  <si>
-    <t>R-06-09 (meter data)</t>
   </si>
   <si>
     <t>FRR malperformance detected</t>
@@ -2642,10 +2540,6 @@
 IE-06-07 (monitoring data)</t>
   </si>
   <si>
-    <t>IE-06-08 (FRR validation report)
-IE-05-04 (FCR validation report)</t>
-  </si>
-  <si>
     <t>After completing previous step</t>
   </si>
   <si>
@@ -2682,9 +2576,6 @@
     <t>IE-08-01 (forecast of flexible capacity and costs)</t>
   </si>
   <si>
-    <t>R-08-01 (Operational forecast of DER)</t>
-  </si>
-  <si>
     <t>Previous step finalized</t>
   </si>
   <si>
@@ -2698,10 +2589,6 @@
   </si>
   <si>
     <t>IE-08-02 (flexibility merit order)</t>
-  </si>
-  <si>
-    <t>IE-08-01
-R-06-05 (communication channel between DER and intermediate platform)</t>
   </si>
   <si>
     <t>Participation in balancing service tender</t>
@@ -2723,9 +2610,6 @@
     <t>IE-08-02 (Flexibility reservation request)</t>
   </si>
   <si>
-    <t>R-06-05 (communication channel between DER and intermediate platform)</t>
-  </si>
-  <si>
     <t>Flexibility reservation request received</t>
   </si>
   <si>
@@ -2796,9 +2680,6 @@
   </si>
   <si>
     <t>IE-06-06 (individual FRR monitoring data)</t>
-  </si>
-  <si>
-    <t>R-05-05 (active power meter (on-site))</t>
   </si>
   <si>
     <t>IE-01-01</t>
@@ -3470,15 +3351,6 @@
     <t>9b</t>
   </si>
   <si>
-    <t>Detection of the frequency issues - Frequency Containment Reservce (FCR)</t>
-  </si>
-  <si>
-    <t>Detection of the frequency issues - Frequency Restoration Reserve (FRR)</t>
-  </si>
-  <si>
-    <t>Flexibility activation through the Flexibility Management and Trading Platform - FRR</t>
-  </si>
-  <si>
     <t>TSO, AGC</t>
   </si>
   <si>
@@ -3501,6 +3373,30 @@
   </si>
   <si>
     <t>FrequencyControlArchi_OverviewMAESHA.png</t>
+  </si>
+  <si>
+    <t>Sc1- "Frequency reserve requirements"</t>
+  </si>
+  <si>
+    <t>Sc2- "Detection of the frequency issues - Frequency Containment Reservce (FCR)"</t>
+  </si>
+  <si>
+    <t>Sc3- "Detection of the frequency issues - Frequency Restoration Reserve (FRR)"</t>
+  </si>
+  <si>
+    <t>Sc4- "Contracting balancing service products"</t>
+  </si>
+  <si>
+    <t>Sc5- "Flexibility activation through local controller - FCR"</t>
+  </si>
+  <si>
+    <t>Sc6- "Flexibility activation through the Flexibility Management and Trading Platform - FRR"</t>
+  </si>
+  <si>
+    <t>Sc7- "Settlement process to remunerate flexibility activation"</t>
+  </si>
+  <si>
+    <t>Sc8- "Frequency control by flexibility provider"</t>
   </si>
 </sst>
 </file>
@@ -4243,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4349,7 +4245,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4488,7 +4384,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4565,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4577,7 +4473,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4757,22 +4653,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5363,7 +5259,7 @@
         <v>119</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>116</v>
@@ -5417,7 +5313,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>190</v>
@@ -5540,175 +5436,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="M70" s="26" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="R70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="S70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="U70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="V70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="W70" s="26" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="X70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="Y70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="Z70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="AA70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="AB70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="AC70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="AD70" s="26" t="s">
-        <v>203</v>
+        <v>559</v>
       </c>
       <c r="AE70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AF70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AG70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AH70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AI70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AJ70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AK70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AL70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AM70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AN70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AO70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AP70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AQ70" s="26" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AR70" s="26" t="s">
-        <v>215</v>
+        <v>561</v>
       </c>
       <c r="AS70" s="26" t="s">
-        <v>215</v>
+        <v>561</v>
       </c>
       <c r="AT70" s="26" t="s">
-        <v>215</v>
+        <v>561</v>
       </c>
       <c r="AU70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="AV70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="AW70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="AX70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="AY70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="AZ70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BA70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BB70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>222</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5807,10 +5703,10 @@
         <v>2</v>
       </c>
       <c r="AG71" s="18" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="AH71" s="18" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="AI71" s="18">
         <v>4</v>
@@ -5828,10 +5724,10 @@
         <v>8</v>
       </c>
       <c r="AN71" s="18" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="AO71" s="18" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="AP71" s="18">
         <v>10</v>
@@ -5909,160 +5805,160 @@
         <v>227</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q72" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="R72" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="S72" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="R72" s="26" t="s">
+      <c r="T72" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="S72" s="26" t="s">
+      <c r="U72" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="V72" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="T72" s="26" t="s">
+      <c r="W72" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="U72" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="V72" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="W72" s="26" t="s">
-        <v>324</v>
-      </c>
       <c r="X72" s="26" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="Y72" s="26" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="Z72" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA72" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB72" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC72" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD72" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE72" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="AA72" s="26" t="s">
+      <c r="AF72" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="AB72" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC72" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD72" s="26" t="s">
+      <c r="AG72" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH72" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI72" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="AE72" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF72" s="26" t="s">
+      <c r="AJ72" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK72" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="AG72" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH72" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="AI72" s="26" t="s">
+      <c r="AL72" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM72" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN72" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO72" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP72" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ72" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="AJ72" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK72" s="26" t="s">
+      <c r="AR72" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS72" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT72" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="AL72" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM72" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="AN72" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO72" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP72" s="26" t="s">
+      <c r="AU72" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="AV72" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW72" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX72" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="AY72" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="AQ72" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="AR72" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS72" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="AT72" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="AU72" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AV72" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AW72" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AX72" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="AY72" s="26" t="s">
-        <v>448</v>
-      </c>
       <c r="AZ72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="BA72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="BB72" s="26" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="BC72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="BD72" s="26" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="BE72" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="BF72" s="26" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="BG72" s="26" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -6074,172 +5970,172 @@
         <v>228</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F73" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G73" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="H73" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="H73" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="I73" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K73" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="M73" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="L73" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="M73" s="18" t="s">
-        <v>274</v>
-      </c>
       <c r="N73" s="26" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q73" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="R73" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="R73" s="26" t="s">
+      <c r="T73" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="S73" s="26" t="s">
+      <c r="U73" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="V73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="T73" s="26" t="s">
+      <c r="W73" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="U73" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="V73" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="W73" s="26" t="s">
-        <v>325</v>
-      </c>
       <c r="X73" s="26" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="Y73" s="26" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Z73" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA73" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB73" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC73" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD73" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE73" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="AA73" s="26" t="s">
+      <c r="AF73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="AB73" s="26" t="s">
+      <c r="AG73" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="AC73" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD73" s="26" t="s">
+      <c r="AH73" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI73" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="AE73" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF73" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG73" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH73" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="AI73" s="26" t="s">
-        <v>383</v>
-      </c>
       <c r="AJ73" s="26" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="AK73" s="26" t="s">
         <v>213</v>
       </c>
       <c r="AL73" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM73" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN73" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AO73" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP73" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ73" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR73" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS73" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT73" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU73" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="AM73" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="AN73" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="AO73" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="AP73" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ73" s="26" t="s">
+      <c r="AV73" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW73" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX73" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="AY73" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="AZ73" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="AR73" s="26" t="s">
+      <c r="BA73" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="AS73" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="AT73" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="AU73" s="26" t="s">
+      <c r="BB73" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC73" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD73" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="BE73" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="BF73" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="AV73" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="AW73" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="AX73" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="AY73" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="AZ73" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="BA73" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="BB73" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="BC73" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="BD73" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="BE73" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="BF73" s="26" t="s">
-        <v>466</v>
-      </c>
       <c r="BG73" s="26" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6251,172 +6147,172 @@
         <v>229</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F74" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="H74" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="H74" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I74" s="26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K74" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="M74" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="L74" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="M74" s="26" t="s">
-        <v>275</v>
-      </c>
       <c r="N74" s="26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P74" s="26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q74" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="R74" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="S74" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="R74" s="26" t="s">
+      <c r="T74" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="S74" s="26" t="s">
+      <c r="U74" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="V74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="T74" s="26" t="s">
+      <c r="W74" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="U74" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="V74" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="W74" s="26" t="s">
-        <v>326</v>
-      </c>
       <c r="X74" s="26" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="Y74" s="26" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="Z74" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA74" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB74" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC74" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD74" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE74" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="AA74" s="26" t="s">
+      <c r="AF74" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AB74" s="26" t="s">
+      <c r="AG74" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="AC74" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD74" s="26" t="s">
+      <c r="AH74" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI74" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="AE74" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF74" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG74" s="26" t="s">
+      <c r="AJ74" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK74" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL74" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM74" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="AH74" s="26" t="s">
+      <c r="AN74" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO74" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="AI74" s="26" t="s">
+      <c r="AP74" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ74" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="AJ74" s="26" t="s">
+      <c r="AR74" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AS74" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="AK74" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL74" s="26" t="s">
+      <c r="AT74" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU74" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="AM74" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="AN74" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="AO74" s="26" t="s">
+      <c r="AV74" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AW74" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX74" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="AP74" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="AQ74" s="26" t="s">
+      <c r="AY74" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="AZ74" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="AR74" s="26" t="s">
+      <c r="BA74" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="AS74" s="26" t="s">
+      <c r="BB74" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="BC74" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="AT74" s="26" t="s">
+      <c r="BD74" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="BE74" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="AU74" s="26" t="s">
+      <c r="BF74" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="AV74" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="AW74" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX74" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="AY74" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="AZ74" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="BA74" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="BB74" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="BC74" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="BD74" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BE74" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="BF74" s="26" t="s">
-        <v>467</v>
-      </c>
       <c r="BG74" s="26" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6428,7 +6324,7 @@
         <v>230</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>230</v>
@@ -6446,7 +6342,7 @@
         <v>230</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K75" s="18" t="s">
         <v>230</v>
@@ -6455,28 +6351,28 @@
         <v>230</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Q75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="U75" s="18" t="s">
         <v>230</v>
@@ -6485,7 +6381,7 @@
         <v>230</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="X75" s="18" t="s">
         <v>230</v>
@@ -6494,7 +6390,7 @@
         <v>230</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AA75" s="18" t="s">
         <v>230</v>
@@ -6503,10 +6399,10 @@
         <v>230</v>
       </c>
       <c r="AC75" s="18" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AD75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AE75" s="18" t="s">
         <v>230</v>
@@ -6515,19 +6411,19 @@
         <v>230</v>
       </c>
       <c r="AG75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AJ75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AL75" s="18" t="s">
         <v>230</v>
@@ -6539,22 +6435,22 @@
         <v>230</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AQ75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AR75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AS75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="AT75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AU75" s="18" t="s">
         <v>230</v>
@@ -6569,28 +6465,28 @@
         <v>230</v>
       </c>
       <c r="AY75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AZ75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="BA75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BB75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="BC75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="BE75" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BF75" s="18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="BG75" s="18" t="s">
         <v>230</v>
@@ -6626,7 +6522,7 @@
         <v>154</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>154</v>
@@ -6647,10 +6543,10 @@
         <v>217</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="T76" s="18" t="s">
         <v>217</v>
@@ -6659,22 +6555,22 @@
         <v>217</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="W76" s="18" t="s">
         <v>217</v>
       </c>
       <c r="X76" s="18" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="AB76" s="18" t="s">
         <v>129</v>
@@ -6683,16 +6579,16 @@
         <v>217</v>
       </c>
       <c r="AD76" s="18" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AE76" s="18" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="AF76" s="18" t="s">
         <v>129</v>
       </c>
       <c r="AG76" s="18" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="AH76" s="18" t="s">
         <v>139</v>
@@ -6701,13 +6597,13 @@
         <v>139</v>
       </c>
       <c r="AJ76" s="18" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="AK76" s="18" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="AM76" s="18" t="s">
         <v>131</v>
@@ -6734,43 +6630,43 @@
         <v>217</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="AV76" s="18" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="BA76" s="18" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="BC76" s="18" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="BE76" s="18" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -6959,325 +6855,349 @@
         <v>231</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F78" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="H78" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H78" s="26" t="s">
-        <v>253</v>
-      </c>
       <c r="I78" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P78" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="R78" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="Q78" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="R78" s="18" t="s">
-        <v>301</v>
-      </c>
       <c r="S78" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="T78" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="U78" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="V78" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="T78" s="18" t="s">
+      <c r="W78" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="U78" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="V78" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="W78" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="X78" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y78" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z78" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA78" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="Y78" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z78" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA78" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="AB78" s="18" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="AC78" s="18" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="AD78" s="18" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="AE78" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF78" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG78" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH78" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI78" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ78" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="AF78" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG78" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH78" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI78" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ78" s="26" t="s">
-        <v>390</v>
-      </c>
       <c r="AK78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="AL78" s="26" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="AM78" s="26" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="AN78" s="26" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="AO78" s="26" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="AP78" s="26" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="AQ78" s="26" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="AR78" s="26" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="AS78" s="26" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="AT78" s="26" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="AU78" s="26" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="AV78" s="26" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="AW78" s="26" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AX78" s="26" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AY78" s="26" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="AZ78" s="26" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="BA78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BB78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BC78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BD78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BE78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BF78" s="26" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="BG78" s="26" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:59" ht="43.5" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>241</v>
+        <v>181</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="N79" s="26" t="s">
-        <v>281</v>
+        <v>192</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="P79" s="26" t="s">
-        <v>290</v>
+        <v>192</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="T79" s="26" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="V79" s="26" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="W79" s="26" t="s">
-        <v>328</v>
+        <v>196</v>
       </c>
       <c r="X79" s="26" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="Y79" s="26" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="Z79" s="26" t="s">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c r="AA79" s="26" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="AB79" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
+        <v>202</v>
+      </c>
+      <c r="AC79" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD79" s="26" t="s">
+        <v>202</v>
+      </c>
       <c r="AE79" s="26" t="s">
-        <v>365</v>
+        <v>208</v>
       </c>
       <c r="AF79" s="26" t="s">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="AG79" s="26" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="AI79" s="26" t="s">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="AJ79" s="26" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="AK79" s="26" t="s">
-        <v>395</v>
+        <v>208</v>
       </c>
       <c r="AL79" s="26" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="AM79" s="26" t="s">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="AN79" s="26" t="s">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="AO79" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="AP79" s="26"/>
-      <c r="AQ79" s="26"/>
+        <v>208</v>
+      </c>
+      <c r="AP79" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ79" s="26" t="s">
+        <v>208</v>
+      </c>
       <c r="AR79" s="26" t="s">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="AS79" s="26" t="s">
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="AT79" s="26" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="AU79" s="26" t="s">
-        <v>434</v>
+        <v>221</v>
       </c>
       <c r="AV79" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="AW79" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="AW79" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="AX79" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="AY79" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="AY79" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="AZ79" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="BA79" s="26"/>
-      <c r="BB79" s="26"/>
-      <c r="BC79" s="26"/>
-      <c r="BD79" s="26"/>
-      <c r="BE79" s="26"/>
-      <c r="BF79" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="BA79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF79" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="BG79" s="26" t="s">
-        <v>472</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7369,112 +7289,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="O82" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="P82" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q82" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="R82" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="S82" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="T82" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="U82" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="V82" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="W82" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="X82" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y82" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z82" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA82" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB82" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="P82" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q82" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="R82" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="S82" s="18" t="s">
+      <c r="AC82" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD82" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE82" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF82" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="T82" s="18" t="s">
+      <c r="AG82" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="U82" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="V82" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="W82" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="X82" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y82" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Z82" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA82" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB82" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="AC82" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="AD82" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="AE82" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF82" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="AG82" s="18" t="s">
-        <v>557</v>
-      </c>
       <c r="AH82" s="18" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="AI82" s="18" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="AJ82" s="18" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="AK82" s="18" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="AL82" s="18" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7483,112 +7403,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="M83" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="O83" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q83" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="R83" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="S83" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="T83" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="U83" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="V83" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="W83" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y83" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z83" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="N83" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="O83" s="18" t="s">
+      <c r="AA83" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB83" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="P83" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q83" s="18" t="s">
+      <c r="AC83" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD83" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE83" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="R83" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="S83" s="18" t="s">
+      <c r="AF83" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG83" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="T83" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="U83" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="V83" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W83" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="X83" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y83" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z83" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA83" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="AB83" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="AC83" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="AD83" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE83" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF83" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG83" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="AH83" s="18" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="AI83" s="18" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="AJ83" s="18" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="AK83" s="18" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="AL83" s="18" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7597,110 +7517,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="N84" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="O84" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q84" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="R84" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="S84" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="T84" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="U84" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="V84" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="W84" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="X84" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y84" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z84" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA84" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="O84" s="26" t="s">
+      <c r="AB84" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="P84" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q84" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="R84" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="S84" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="T84" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="U84" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="V84" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="W84" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="X84" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y84" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="Z84" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA84" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB84" s="26" t="s">
-        <v>546</v>
-      </c>
       <c r="AC84" s="26" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="AF84" s="26" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="AG84" s="26" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="AH84" s="26" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="AI84" s="26" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="AJ84" s="26" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="AK84" s="26" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="AL84" s="26" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3AC089-06B8-4A17-A9FC-0BE4304463C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F469A2-ED0D-48F9-87FD-D90F00C5C790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEC62559-2" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="565">
   <si>
     <t>1 Description of the use case</t>
   </si>
@@ -2059,9 +2059,6 @@
   </si>
   <si>
     <t>CREATE</t>
-  </si>
-  <si>
-    <t>IE-01-01 (frequency bandwigth and emergency thresholds)</t>
   </si>
   <si>
     <t>Collect data of the power system</t>
@@ -3397,6 +3394,15 @@
   </si>
   <si>
     <t>Sc8- "Frequency control by flexibility provider"</t>
+  </si>
+  <si>
+    <t>"TSO"</t>
+  </si>
+  <si>
+    <t>"Flexibility provider"</t>
+  </si>
+  <si>
+    <t>"IE-01-01"</t>
   </si>
 </sst>
 </file>
@@ -4139,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4245,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4384,7 +4390,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4461,7 +4467,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4473,7 +4479,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4653,22 +4659,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="H41" s="18" t="s">
         <v>553</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5253,13 +5259,13 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>116</v>
+        <v>562</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>119</v>
+        <v>563</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>116</v>
@@ -5313,7 +5319,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>190</v>
@@ -5436,175 +5442,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="I70" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="J70" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="K70" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="I70" s="26" t="s">
+      <c r="L70" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="M70" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="K70" s="26" t="s">
+      <c r="N70" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="O70" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="P70" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q70" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="R70" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="N70" s="26" t="s">
+      <c r="S70" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="O70" s="26" t="s">
+      <c r="T70" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="P70" s="26" t="s">
+      <c r="U70" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="Q70" s="26" t="s">
+      <c r="V70" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="W70" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="X70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="Y70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="S70" s="26" t="s">
+      <c r="Z70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="T70" s="26" t="s">
+      <c r="AA70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="U70" s="26" t="s">
+      <c r="AB70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="V70" s="26" t="s">
+      <c r="AC70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="W70" s="26" t="s">
+      <c r="AD70" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="X70" s="26" t="s">
+      <c r="AE70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="Y70" s="26" t="s">
+      <c r="AF70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="Z70" s="26" t="s">
+      <c r="AG70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="AA70" s="26" t="s">
+      <c r="AH70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="AB70" s="26" t="s">
+      <c r="AI70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="AC70" s="26" t="s">
+      <c r="AJ70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="AD70" s="26" t="s">
+      <c r="AK70" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="AE70" s="26" t="s">
+      <c r="AL70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AN70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AO70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AQ70" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="AR70" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="AF70" s="26" t="s">
+      <c r="AS70" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="AG70" s="26" t="s">
+      <c r="AT70" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="AH70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AJ70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AL70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AM70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AN70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AO70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AQ70" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="AR70" s="26" t="s">
+      <c r="AU70" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="AS70" s="26" t="s">
+      <c r="AV70" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="AT70" s="26" t="s">
+      <c r="AW70" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="AU70" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="AV70" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="AW70" s="26" t="s">
-        <v>562</v>
-      </c>
       <c r="AX70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AY70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BA70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BB70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5703,10 +5709,10 @@
         <v>2</v>
       </c>
       <c r="AG71" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH71" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="AH71" s="18" t="s">
-        <v>544</v>
       </c>
       <c r="AI71" s="18">
         <v>4</v>
@@ -5724,10 +5730,10 @@
         <v>8</v>
       </c>
       <c r="AN71" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO71" s="18" t="s">
         <v>545</v>
-      </c>
-      <c r="AO71" s="18" t="s">
-        <v>546</v>
       </c>
       <c r="AP71" s="18">
         <v>10</v>
@@ -5805,160 +5811,160 @@
         <v>227</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S72" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V72" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W72" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X72" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y72" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z72" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA72" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC72" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AD72" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE72" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF72" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG72" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH72" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI72" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AJ72" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AK72" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL72" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM72" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO72" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AP72" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ72" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AR72" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS72" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AT72" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU72" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AV72" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW72" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX72" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AY72" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AZ72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BA72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BB72" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BC72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BD72" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BE72" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF72" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BG72" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5970,172 +5976,172 @@
         <v>228</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q73" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S73" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V73" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W73" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X73" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y73" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z73" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA73" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AB73" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC73" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD73" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE73" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF73" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG73" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AH73" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AI73" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AJ73" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AK73" s="26" t="s">
         <v>213</v>
       </c>
       <c r="AL73" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM73" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN73" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AO73" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AP73" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AQ73" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR73" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AS73" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AT73" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AU73" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AV73" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AW73" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AX73" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AY73" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AZ73" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BA73" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BB73" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BC73" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BD73" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BE73" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BF73" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BG73" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6147,172 +6153,172 @@
         <v>229</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P74" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q74" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S74" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V74" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W74" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X74" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y74" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z74" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA74" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB74" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AC74" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD74" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AE74" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF74" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG74" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AH74" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AI74" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ74" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK74" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL74" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM74" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN74" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AO74" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AP74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AQ74" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR74" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS74" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AT74" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU74" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV74" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW74" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AX74" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY74" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AZ74" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BA74" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BB74" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC74" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="BC74" s="26" t="s">
-        <v>424</v>
-      </c>
       <c r="BD74" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="BE74" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="BE74" s="26" t="s">
-        <v>428</v>
-      </c>
       <c r="BF74" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BG74" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6324,7 +6330,7 @@
         <v>230</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>230</v>
@@ -6342,7 +6348,7 @@
         <v>230</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K75" s="18" t="s">
         <v>230</v>
@@ -6351,28 +6357,28 @@
         <v>230</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U75" s="18" t="s">
         <v>230</v>
@@ -6381,7 +6387,7 @@
         <v>230</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X75" s="18" t="s">
         <v>230</v>
@@ -6390,7 +6396,7 @@
         <v>230</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA75" s="18" t="s">
         <v>230</v>
@@ -6399,10 +6405,10 @@
         <v>230</v>
       </c>
       <c r="AC75" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AE75" s="18" t="s">
         <v>230</v>
@@ -6411,19 +6417,19 @@
         <v>230</v>
       </c>
       <c r="AG75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL75" s="18" t="s">
         <v>230</v>
@@ -6435,22 +6441,22 @@
         <v>230</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AQ75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AR75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="AT75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AU75" s="18" t="s">
         <v>230</v>
@@ -6465,28 +6471,28 @@
         <v>230</v>
       </c>
       <c r="AY75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AZ75" s="18" t="s">
         <v>230</v>
       </c>
       <c r="BA75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BC75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BD75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BE75" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BF75" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BG75" s="18" t="s">
         <v>230</v>
@@ -6522,7 +6528,7 @@
         <v>154</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L76" s="18" t="s">
         <v>154</v>
@@ -6543,10 +6549,10 @@
         <v>217</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T76" s="18" t="s">
         <v>217</v>
@@ -6555,22 +6561,22 @@
         <v>217</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W76" s="18" t="s">
         <v>217</v>
       </c>
       <c r="X76" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB76" s="18" t="s">
         <v>129</v>
@@ -6579,16 +6585,16 @@
         <v>217</v>
       </c>
       <c r="AD76" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE76" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF76" s="18" t="s">
         <v>129</v>
       </c>
       <c r="AG76" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH76" s="18" t="s">
         <v>139</v>
@@ -6597,13 +6603,13 @@
         <v>139</v>
       </c>
       <c r="AJ76" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK76" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM76" s="18" t="s">
         <v>131</v>
@@ -6630,43 +6636,43 @@
         <v>217</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AV76" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BA76" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BC76" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BE76" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -6852,175 +6858,175 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>231</v>
+        <v>564</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S78" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T78" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U78" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V78" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X78" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y78" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA78" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB78" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AC78" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD78" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE78" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF78" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG78" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH78" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI78" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AJ78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AK78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL78" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM78" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN78" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO78" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AP78" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ78" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR78" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AS78" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AT78" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU78" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AV78" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AW78" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX78" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AY78" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AZ78" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BA78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BB78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BC78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BD78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BE78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BF78" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BG78" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.35">
@@ -7289,112 +7295,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V82" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="X82" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y82" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA82" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AB82" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AC82" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AD82" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AE82" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF82" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG82" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AH82" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AI82" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AJ82" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AK82" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL82" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7403,112 +7409,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S83" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="T83" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="T83" s="18" t="s">
-        <v>485</v>
-      </c>
       <c r="U83" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V83" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W83" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X83" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y83" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AA83" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AB83" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC83" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AD83" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE83" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF83" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG83" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AH83" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI83" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AJ83" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AK83" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AL83" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7517,110 +7523,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P84" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S84" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T84" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U84" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V84" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W84" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X84" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Y84" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z84" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AA84" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AB84" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC84" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF84" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG84" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="AG84" s="26" t="s">
-        <v>542</v>
-      </c>
       <c r="AH84" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AI84" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ84" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AK84" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AL84" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A67B38-2F22-4C5B-AF60-EB425F192F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB224ABE-0A52-4710-83E1-48B0AF17912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEC62559-2" sheetId="1" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="520">
   <si>
     <t>1 Description of the use case</t>
   </si>
@@ -1834,9 +1834,6 @@
   </si>
   <si>
     <t>Public meter</t>
-  </si>
-  <si>
-    <t>Frequency meter, to measure frequency on the entire power network</t>
   </si>
   <si>
     <t>Calibrated power meter to continuously measure the active power exchange with the public grid. Installed at the DER and controlled via PLC</t>
@@ -3268,6 +3265,9 @@
   </si>
   <si>
     <t>Flexibility provider, Aggregator</t>
+  </si>
+  <si>
+    <t>Frequency meter to measure frequency on the entire power network</t>
   </si>
 </sst>
 </file>
@@ -4010,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BH76" sqref="BH76"/>
+    <sheetView tabSelected="1" topLeftCell="V36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4116,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4212,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -4246,7 +4246,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -4255,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4332,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4344,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4524,22 +4524,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="H41" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4707,7 +4707,7 @@
         <v>156</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
@@ -4832,17 +4832,21 @@
       <c r="R48" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="S48" s="26"/>
+      <c r="S48" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="T48" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="U48" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="U48" s="26" t="s">
+      <c r="V48" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="V48" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="W48" s="26"/>
+      <c r="W48" s="26" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -4889,13 +4893,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F51" s="18"/>
     </row>
@@ -4905,13 +4909,13 @@
         <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F52" s="18"/>
     </row>
@@ -4921,13 +4925,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="18"/>
     </row>
@@ -4937,13 +4941,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -4959,7 +4963,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="18"/>
     </row>
@@ -4969,13 +4973,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F56" s="18"/>
     </row>
@@ -4985,13 +4989,13 @@
         <v>51</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F57" s="18"/>
     </row>
@@ -5001,13 +5005,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F58" s="18"/>
     </row>
@@ -5045,28 +5049,28 @@
         <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="29" x14ac:dyDescent="0.35">
@@ -5075,28 +5079,28 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="29" x14ac:dyDescent="0.35">
@@ -5105,28 +5109,28 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.35">
@@ -5141,7 +5145,7 @@
         <v>119</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>116</v>
@@ -5165,28 +5169,28 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5195,28 +5199,28 @@
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5225,28 +5229,28 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.35">
@@ -5318,175 +5322,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="I70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="J70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="K70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="I70" s="26" t="s">
+      <c r="L70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="M70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="K70" s="26" t="s">
+      <c r="N70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="O70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="P70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="R70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="N70" s="26" t="s">
+      <c r="S70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="O70" s="26" t="s">
+      <c r="T70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="P70" s="26" t="s">
+      <c r="U70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="Q70" s="26" t="s">
+      <c r="V70" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="W70" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="X70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="Y70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="S70" s="26" t="s">
+      <c r="Z70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="T70" s="26" t="s">
+      <c r="AA70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="U70" s="26" t="s">
+      <c r="AB70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="V70" s="26" t="s">
+      <c r="AC70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="W70" s="26" t="s">
+      <c r="AD70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="X70" s="26" t="s">
+      <c r="AE70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="Y70" s="26" t="s">
+      <c r="AF70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="Z70" s="26" t="s">
+      <c r="AG70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AA70" s="26" t="s">
+      <c r="AH70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AB70" s="26" t="s">
+      <c r="AI70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AC70" s="26" t="s">
+      <c r="AJ70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AD70" s="26" t="s">
+      <c r="AK70" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AE70" s="26" t="s">
+      <c r="AL70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AM70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AP70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AR70" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="AF70" s="26" t="s">
+      <c r="AS70" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="AG70" s="26" t="s">
+      <c r="AT70" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="AH70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AI70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AJ70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AK70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AL70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AM70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AN70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AO70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AP70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AQ70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AR70" s="26" t="s">
+      <c r="AU70" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="AS70" s="26" t="s">
+      <c r="AV70" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="AT70" s="26" t="s">
+      <c r="AW70" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="AU70" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV70" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="AW70" s="26" t="s">
-        <v>511</v>
-      </c>
       <c r="AX70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AY70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BA70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BB70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5585,10 +5589,10 @@
         <v>2</v>
       </c>
       <c r="AG71" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="AH71" s="18" t="s">
         <v>492</v>
-      </c>
-      <c r="AH71" s="18" t="s">
-        <v>493</v>
       </c>
       <c r="AI71" s="18">
         <v>4</v>
@@ -5606,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="AN71" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="AO71" s="18" t="s">
         <v>494</v>
-      </c>
-      <c r="AO71" s="18" t="s">
-        <v>495</v>
       </c>
       <c r="AP71" s="18">
         <v>10</v>
@@ -5672,175 +5676,175 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S72" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T72" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U72" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V72" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W72" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X72" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y72" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z72" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA72" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC72" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD72" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE72" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF72" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG72" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AH72" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI72" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ72" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK72" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AL72" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM72" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO72" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AP72" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ72" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AR72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AS72" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AT72" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AU72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AV72" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AW72" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AX72" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AY72" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AZ72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BA72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB72" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BC72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD72" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BE72" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BF72" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BG72" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5849,175 +5853,175 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q73" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S73" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T73" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U73" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V73" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W73" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X73" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y73" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z73" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA73" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB73" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AC73" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD73" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE73" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF73" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG73" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH73" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI73" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AJ73" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK73" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL73" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM73" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN73" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO73" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AP73" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AQ73" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR73" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AS73" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AT73" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AU73" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AV73" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AW73" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AX73" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AY73" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AZ73" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BA73" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BB73" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BC73" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BD73" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BE73" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BF73" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BG73" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6026,175 +6030,175 @@
         <v>67</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P74" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q74" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S74" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T74" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V74" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W74" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X74" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y74" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z74" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA74" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB74" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC74" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD74" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE74" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF74" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG74" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH74" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI74" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ74" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK74" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL74" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM74" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN74" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO74" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AP74" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ74" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR74" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AS74" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AT74" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU74" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AV74" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AW74" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AX74" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AY74" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AZ74" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BA74" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BB74" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="BC74" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="BC74" s="26" t="s">
-        <v>374</v>
-      </c>
       <c r="BD74" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE74" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="BE74" s="26" t="s">
-        <v>378</v>
-      </c>
       <c r="BF74" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BG74" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6203,175 +6207,175 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC75" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP75" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AQ75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AR75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AS75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AT75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AU75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AV75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AW75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AX75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AY75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BA75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BB75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BC75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BD75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BE75" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BF75" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BG75" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.35">
@@ -6428,7 +6432,7 @@
         <v>119</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T76" s="18" t="s">
         <v>116</v>
@@ -6437,7 +6441,7 @@
         <v>116</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W76" s="18" t="s">
         <v>116</v>
@@ -6452,7 +6456,7 @@
         <v>141</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AB76" s="18" t="s">
         <v>129</v>
@@ -6464,7 +6468,7 @@
         <v>119</v>
       </c>
       <c r="AE76" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF76" s="18" t="s">
         <v>129</v>
@@ -6485,7 +6489,7 @@
         <v>141</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM76" s="18" t="s">
         <v>131</v>
@@ -6512,43 +6516,43 @@
         <v>116</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AV76" s="18" t="s">
         <v>131</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BA76" s="18" t="s">
         <v>131</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BC76" s="18" t="s">
         <v>131</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BE76" s="18" t="s">
         <v>131</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -6620,175 +6624,175 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S78" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T78" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U78" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="V78" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X78" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y78" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AA78" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AB78" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC78" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD78" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AE78" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF78" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG78" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH78" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI78" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ78" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK78" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL78" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM78" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN78" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="AG78" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="AH78" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI78" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ78" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK78" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL78" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM78" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="AN78" s="26" t="s">
+      <c r="AO78" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="AP78" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="AQ78" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR78" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="AO78" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="AP78" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="AQ78" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="AR78" s="26" t="s">
-        <v>517</v>
-      </c>
       <c r="AS78" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AT78" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AU78" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AV78" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AW78" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AX78" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY78" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AZ78" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BA78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BB78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BC78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BD78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BE78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BF78" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="BG78" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.35">
@@ -6797,175 +6801,175 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W79" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ79" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR79" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS79" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AT79" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AU79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AV79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AW79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AX79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AY79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BA79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BB79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BC79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BD79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BE79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BF79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BG79" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7057,112 +7061,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V82" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X82" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y82" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AA82" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AB82" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AC82" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AD82" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AE82" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF82" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG82" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AH82" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AI82" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AJ82" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AK82" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL82" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7171,112 +7175,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S83" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="T83" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="T83" s="18" t="s">
-        <v>434</v>
-      </c>
       <c r="U83" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V83" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W83" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X83" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y83" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z83" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA83" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AB83" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC83" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AD83" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AE83" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF83" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG83" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AH83" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AI83" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AJ83" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AK83" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL83" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7285,110 +7289,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P84" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S84" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T84" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U84" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V84" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W84" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X84" s="26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y84" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z84" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AA84" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AB84" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC84" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF84" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG84" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="AG84" s="26" t="s">
-        <v>491</v>
-      </c>
       <c r="AH84" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AI84" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AJ84" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AK84" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AL84" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
+++ b/excel-use-cases/MAESHA/IEC62559-2_TEMPLATE_FrequencyControlUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MAESHA\08_BRIDGE\Data Management WG\UC repository\MAESHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB224ABE-0A52-4710-83E1-48B0AF17912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60B934E-69E6-469B-98CC-C93923ABBD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="517">
   <si>
     <t>1 Description of the use case</t>
   </si>
@@ -1701,16 +1701,7 @@
     <t>Physical or legal person that has his own interests, defined as "Business Goals"</t>
   </si>
   <si>
-    <t>Logical actors</t>
-  </si>
-  <si>
     <t>Technical entity that takes part in the execution of a use case. A logical actor can be mapped to a physical component</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Devices</t>
   </si>
   <si>
     <t>TSO</t>
@@ -4010,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" topLeftCell="U36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4116,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4212,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -4246,7 +4237,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -4255,7 +4246,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -4332,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4344,7 +4335,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19"/>
@@ -4524,22 +4515,22 @@
         <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="H41" s="18" t="s">
         <v>499</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4584,13 +4575,13 @@
         <v>110</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -4619,7 +4610,7 @@
         <v>111</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -4647,67 +4638,67 @@
         <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="F46" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G46" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="I46" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O46" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q46" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="P46" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="R46" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S46" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="U46" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="T46" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="U46" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="V46" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.35">
@@ -4716,67 +4707,67 @@
         <v>42</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="58" x14ac:dyDescent="0.35">
@@ -4785,67 +4776,67 @@
         <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F48" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="H48" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M48" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="N48" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="N48" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="O48" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>147</v>
-      </c>
       <c r="Q48" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="R48" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="S48" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R48" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="S48" s="26" t="s">
-        <v>152</v>
-      </c>
       <c r="T48" s="26" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W48" s="26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
@@ -4854,7 +4845,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -4893,13 +4884,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F51" s="18"/>
     </row>
@@ -4909,13 +4900,13 @@
         <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F52" s="18"/>
     </row>
@@ -4925,13 +4916,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F53" s="18"/>
     </row>
@@ -4941,13 +4932,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -4963,7 +4954,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F55" s="18"/>
     </row>
@@ -4973,13 +4964,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F56" s="18"/>
     </row>
@@ -4989,13 +4980,13 @@
         <v>51</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F57" s="18"/>
     </row>
@@ -5005,13 +4996,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F58" s="18"/>
     </row>
@@ -5049,28 +5040,28 @@
         <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="29" x14ac:dyDescent="0.35">
@@ -5079,28 +5070,28 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="29" x14ac:dyDescent="0.35">
@@ -5109,28 +5100,28 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.35">
@@ -5139,28 +5130,28 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="E65" s="18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F65" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="H65" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I65" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.35">
@@ -5169,28 +5160,28 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5199,28 +5190,28 @@
         <v>60</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5229,28 +5220,28 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.35">
@@ -5322,175 +5313,175 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="O70" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="P70" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="R70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="S70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="T70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="U70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="V70" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="I70" s="26" t="s">
+      <c r="W70" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="X70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="Y70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="K70" s="26" t="s">
+      <c r="Z70" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="AA70" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB70" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC70" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD70" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="AF70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="N70" s="26" t="s">
+      <c r="AG70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="O70" s="26" t="s">
+      <c r="AH70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="P70" s="26" t="s">
+      <c r="AI70" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="Q70" s="26" t="s">
+      <c r="AJ70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AM70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AO70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ70" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AR70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="AS70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="S70" s="26" t="s">
+      <c r="AT70" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="T70" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="U70" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="V70" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="W70" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="X70" s="26" t="s">
+      <c r="AU70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="Y70" s="26" t="s">
+      <c r="AV70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="Z70" s="26" t="s">
+      <c r="AW70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="AA70" s="26" t="s">
+      <c r="AX70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="AB70" s="26" t="s">
+      <c r="AY70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="AC70" s="26" t="s">
+      <c r="AZ70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="AD70" s="26" t="s">
+      <c r="BA70" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="AE70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AG70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AI70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AJ70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AK70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AL70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AM70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AN70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AP70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AQ70" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="AR70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AS70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AT70" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="AU70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="AV70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="AW70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="AX70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="AY70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="AZ70" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="BA70" s="26" t="s">
-        <v>510</v>
-      </c>
       <c r="BB70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="BC70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="BD70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="BE70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="BF70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="BG70" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.35">
@@ -5589,10 +5580,10 @@
         <v>2</v>
       </c>
       <c r="AG71" s="18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AH71" s="18" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AI71" s="18">
         <v>4</v>
@@ -5610,10 +5601,10 @@
         <v>8</v>
       </c>
       <c r="AN71" s="18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AO71" s="18" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AP71" s="18">
         <v>10</v>
@@ -5676,175 +5667,175 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H72" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="J72" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="J72" s="26" t="s">
+      <c r="K72" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="K72" s="26" t="s">
+      <c r="L72" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="L72" s="26" t="s">
-        <v>250</v>
-      </c>
       <c r="M72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="S72" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T72" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="U72" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="U72" s="26" t="s">
+      <c r="V72" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="V72" s="26" t="s">
+      <c r="W72" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="W72" s="26" t="s">
+      <c r="X72" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="X72" s="26" t="s">
+      <c r="Y72" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="Y72" s="26" t="s">
+      <c r="Z72" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="Z72" s="26" t="s">
+      <c r="AA72" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="AA72" s="26" t="s">
-        <v>299</v>
-      </c>
       <c r="AB72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AC72" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD72" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="AD72" s="26" t="s">
+      <c r="AE72" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="AE72" s="26" t="s">
+      <c r="AF72" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="AF72" s="26" t="s">
+      <c r="AG72" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="AG72" s="26" t="s">
+      <c r="AH72" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="AH72" s="26" t="s">
+      <c r="AI72" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="AI72" s="26" t="s">
+      <c r="AJ72" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="AJ72" s="26" t="s">
+      <c r="AK72" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="AK72" s="26" t="s">
-        <v>328</v>
-      </c>
       <c r="AL72" s="26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AM72" s="26" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AN72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AO72" s="26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AP72" s="26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AQ72" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR72" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="AR72" s="26" t="s">
+      <c r="AS72" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="AS72" s="26" t="s">
+      <c r="AT72" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="AT72" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="AU72" s="26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AV72" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AW72" s="26" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AX72" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="AY72" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="AY72" s="26" t="s">
-        <v>363</v>
-      </c>
       <c r="AZ72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BA72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BB72" s="26" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BC72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BD72" s="26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BE72" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BF72" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="BG72" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="BG72" s="26" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="29" x14ac:dyDescent="0.35">
@@ -5853,175 +5844,175 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="E73" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>232</v>
-      </c>
       <c r="F73" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G73" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="I73" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="J73" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="K73" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="K73" s="18" t="s">
+      <c r="L73" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="L73" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="M73" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O73" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="P73" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="P73" s="26" t="s">
-        <v>262</v>
-      </c>
       <c r="Q73" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S73" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T73" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="U73" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="U73" s="26" t="s">
+      <c r="V73" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="V73" s="26" t="s">
+      <c r="W73" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="W73" s="26" t="s">
+      <c r="X73" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="X73" s="26" t="s">
+      <c r="Y73" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="Y73" s="26" t="s">
+      <c r="Z73" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="Z73" s="26" t="s">
+      <c r="AA73" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="AA73" s="26" t="s">
-        <v>300</v>
-      </c>
       <c r="AB73" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC73" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="AC73" s="26" t="s">
+      <c r="AD73" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="AD73" s="26" t="s">
+      <c r="AE73" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="AE73" s="26" t="s">
+      <c r="AF73" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="AF73" s="26" t="s">
+      <c r="AG73" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="AG73" s="26" t="s">
+      <c r="AH73" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="AH73" s="26" t="s">
+      <c r="AI73" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="AI73" s="26" t="s">
+      <c r="AJ73" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="AJ73" s="26" t="s">
-        <v>326</v>
-      </c>
       <c r="AK73" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AL73" s="26" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AM73" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AN73" s="26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AO73" s="26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AP73" s="26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AQ73" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR73" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="AR73" s="26" t="s">
+      <c r="AS73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="AS73" s="26" t="s">
+      <c r="AT73" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="AT73" s="26" t="s">
-        <v>351</v>
-      </c>
       <c r="AU73" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="AV73" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="AV73" s="26" t="s">
-        <v>356</v>
-      </c>
       <c r="AW73" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AX73" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="AX73" s="26" t="s">
+      <c r="AY73" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="AY73" s="26" t="s">
-        <v>364</v>
-      </c>
       <c r="AZ73" s="26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BA73" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB73" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="BB73" s="26" t="s">
-        <v>371</v>
-      </c>
       <c r="BC73" s="26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BD73" s="26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="BE73" s="26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BF73" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG73" s="26" t="s">
         <v>379</v>
-      </c>
-      <c r="BG73" s="26" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="130.5" x14ac:dyDescent="0.35">
@@ -6030,175 +6021,175 @@
         <v>67</v>
       </c>
       <c r="C74" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="E74" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="26" t="s">
-        <v>233</v>
-      </c>
       <c r="F74" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G74" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="I74" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="J74" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="J74" s="26" t="s">
+      <c r="K74" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="K74" s="26" t="s">
+      <c r="L74" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="L74" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="M74" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O74" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="P74" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="P74" s="26" t="s">
-        <v>263</v>
-      </c>
       <c r="Q74" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S74" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="T74" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="U74" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="U74" s="26" t="s">
+      <c r="V74" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="V74" s="26" t="s">
+      <c r="W74" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="W74" s="26" t="s">
+      <c r="X74" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="X74" s="26" t="s">
+      <c r="Y74" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="Y74" s="26" t="s">
+      <c r="Z74" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="Z74" s="26" t="s">
+      <c r="AA74" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="AA74" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="AB74" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC74" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="AC74" s="26" t="s">
+      <c r="AD74" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="AD74" s="26" t="s">
+      <c r="AE74" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="AE74" s="26" t="s">
+      <c r="AF74" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="AF74" s="26" t="s">
+      <c r="AG74" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="AG74" s="26" t="s">
+      <c r="AH74" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="AH74" s="26" t="s">
+      <c r="AI74" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="AI74" s="26" t="s">
+      <c r="AJ74" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="AJ74" s="26" t="s">
-        <v>327</v>
-      </c>
       <c r="AK74" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL74" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="AL74" s="26" t="s">
-        <v>332</v>
-      </c>
       <c r="AM74" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AN74" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AO74" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AP74" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ74" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="AQ74" s="26" t="s">
+      <c r="AR74" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="AR74" s="26" t="s">
+      <c r="AS74" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="AS74" s="26" t="s">
+      <c r="AT74" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="AT74" s="26" t="s">
-        <v>352</v>
-      </c>
       <c r="AU74" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV74" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="AV74" s="26" t="s">
-        <v>357</v>
-      </c>
       <c r="AW74" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX74" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="AX74" s="26" t="s">
+      <c r="AY74" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="AY74" s="26" t="s">
-        <v>365</v>
-      </c>
       <c r="AZ74" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="BA74" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB74" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="BB74" s="26" t="s">
-        <v>372</v>
-      </c>
       <c r="BC74" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD74" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="BD74" s="26" t="s">
-        <v>376</v>
-      </c>
       <c r="BE74" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="BF74" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="BF74" s="26" t="s">
+      <c r="BG74" s="26" t="s">
         <v>380</v>
-      </c>
-      <c r="BG74" s="26" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.35">
@@ -6207,175 +6198,175 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="18" t="s">
-        <v>231</v>
-      </c>
       <c r="E75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="K75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="M75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="N75" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P75" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="R75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="S75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="T75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="U75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="V75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="W75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="X75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC75" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="AH75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="AI75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP75" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AR75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ75" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K75" s="18" t="s">
+      <c r="BB75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="L75" s="18" t="s">
+      <c r="BD75" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="BE75" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="M75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="N75" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="O75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="P75" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="R75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="S75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="T75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="U75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="V75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="W75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="X75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC75" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP75" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AZ75" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC75" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD75" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="BE75" s="18" t="s">
-        <v>231</v>
-      </c>
       <c r="BF75" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BG75" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.35">
@@ -6384,175 +6375,175 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R76" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="S76" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="T76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="U76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V76" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="W76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z76" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA76" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD76" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="AE76" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG76" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH76" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI76" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ76" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK76" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL76" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM76" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN76" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP76" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ76" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L76" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="M76" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="N76" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="O76" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="R76" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="S76" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="T76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="U76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="V76" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="W76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="X76" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y76" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z76" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA76" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="AB76" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD76" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE76" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="AF76" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG76" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH76" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI76" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ76" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK76" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL76" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="AM76" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN76" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP76" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ76" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="AR76" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AS76" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AT76" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AU76" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AV76" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AW76" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AX76" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AY76" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AZ76" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="BA76" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BB76" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="BC76" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BD76" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="BE76" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF76" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="BG76" s="18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.35">
@@ -6624,175 +6615,175 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D78" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="K78" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="L78" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="P78" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q78" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="R78" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="S78" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="T78" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="U78" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="V78" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="W78" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="X78" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y78" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z78" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA78" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB78" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC78" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD78" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE78" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="AF78" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="H78" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="K78" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="M78" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="N78" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="O78" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="P78" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q78" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="R78" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="S78" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="T78" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="U78" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="V78" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="W78" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="X78" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y78" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="Z78" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA78" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB78" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC78" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD78" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE78" s="18" t="s">
+      <c r="AG78" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="AF78" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG78" s="18" t="s">
+      <c r="AH78" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="AH78" s="18" t="s">
+      <c r="AI78" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="AI78" s="18" t="s">
-        <v>461</v>
-      </c>
       <c r="AJ78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL78" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="AK78" s="26" t="s">
+      <c r="AM78" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN78" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AO78" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AP78" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AQ78" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AR78" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS78" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="AT78" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU78" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV78" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="AW78" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AX78" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="AY78" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="AZ78" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BB78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BD78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BE78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BF78" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="BG78" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="AL78" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="AM78" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="AN78" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="AO78" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="AP78" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="AQ78" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR78" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="AS78" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="AT78" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="AU78" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="AV78" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="AW78" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="AX78" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="AY78" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="AZ78" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="BA78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BB78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BC78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BD78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BE78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BF78" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="BG78" s="26" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.35">
@@ -6801,175 +6792,175 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W79" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="X79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Y79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Z79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AA79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AB79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AC79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AD79" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AE79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AG79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AH79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AI79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AJ79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AK79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AM79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AN79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AO79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AP79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AQ79" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AR79" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AS79" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AT79" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AU79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AV79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AW79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AX79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AY79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AZ79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BA79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BB79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BC79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BD79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BE79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BF79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BG79" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7061,112 +7052,112 @@
         <v>74</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="E82" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="F82" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="G82" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="H82" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="I82" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="I82" s="18" t="s">
-        <v>402</v>
-      </c>
       <c r="J82" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K82" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="L82" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="L82" s="18" t="s">
-        <v>410</v>
-      </c>
       <c r="M82" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T82" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="U82" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="V82" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="V82" s="18" t="s">
+      <c r="W82" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="W82" s="18" t="s">
-        <v>441</v>
-      </c>
       <c r="X82" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y82" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="Y82" s="18" t="s">
+      <c r="Z82" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="Z82" s="18" t="s">
+      <c r="AA82" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="AA82" s="18" t="s">
+      <c r="AB82" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="AB82" s="18" t="s">
+      <c r="AC82" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="AC82" s="18" t="s">
+      <c r="AD82" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="AD82" s="18" t="s">
-        <v>461</v>
-      </c>
       <c r="AE82" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="AF82" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="AF82" s="18" t="s">
-        <v>466</v>
-      </c>
       <c r="AG82" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AH82" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI82" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="AI82" s="18" t="s">
+      <c r="AJ82" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="AJ82" s="18" t="s">
+      <c r="AK82" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="AK82" s="18" t="s">
+      <c r="AL82" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="AL82" s="18" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.35">
@@ -7175,112 +7166,112 @@
         <v>75</v>
       </c>
       <c r="C83" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="E83" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="F83" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="G83" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="H83" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="I83" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="I83" s="18" t="s">
-        <v>403</v>
-      </c>
       <c r="J83" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="K83" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="K83" s="18" t="s">
+      <c r="L83" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="L83" s="18" t="s">
-        <v>411</v>
-      </c>
       <c r="M83" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="T83" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="U83" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="U83" s="18" t="s">
+      <c r="V83" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="V83" s="18" t="s">
-        <v>439</v>
-      </c>
       <c r="W83" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="X83" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y83" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="Y83" s="18" t="s">
+      <c r="Z83" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="Z83" s="18" t="s">
+      <c r="AA83" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="AA83" s="18" t="s">
+      <c r="AB83" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="AB83" s="18" t="s">
+      <c r="AC83" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="AC83" s="18" t="s">
+      <c r="AD83" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="AD83" s="18" t="s">
-        <v>462</v>
-      </c>
       <c r="AE83" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF83" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="AF83" s="18" t="s">
-        <v>467</v>
-      </c>
       <c r="AG83" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AH83" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI83" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="AI83" s="18" t="s">
+      <c r="AJ83" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="AJ83" s="18" t="s">
+      <c r="AK83" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="AK83" s="18" t="s">
+      <c r="AL83" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="AL83" s="18" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
@@ -7289,110 +7280,110 @@
         <v>76</v>
       </c>
       <c r="C84" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="E84" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="F84" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="G84" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="H84" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="I84" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="I84" s="26" t="s">
-        <v>404</v>
-      </c>
       <c r="J84" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="K84" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="L84" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="L84" s="26" t="s">
+      <c r="M84" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="M84" s="26" t="s">
-        <v>415</v>
-      </c>
       <c r="N84" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="O84" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="O84" s="26" t="s">
-        <v>420</v>
-      </c>
       <c r="P84" s="26" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S84" s="26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T84" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="U84" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="U84" s="26" t="s">
+      <c r="V84" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="V84" s="26" t="s">
-        <v>440</v>
-      </c>
       <c r="W84" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="X84" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="X84" s="26" t="s">
+      <c r="Y84" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="Y84" s="26" t="s">
+      <c r="Z84" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="Z84" s="26" t="s">
+      <c r="AA84" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="AA84" s="26" t="s">
+      <c r="AB84" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="AB84" s="26" t="s">
+      <c r="AC84" s="26" t="s">
         <v>457</v>
-      </c>
-      <c r="AC84" s="26" t="s">
-        <v>460</v>
       </c>
       <c r="AD84" s="26"/>
       <c r="AE84" s="26" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AF84" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AG84" s="26" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AH84" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI84" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="AI84" s="26" t="s">
+      <c r="AJ84" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="AJ84" s="26" t="s">
+      <c r="AK84" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="AK84" s="26" t="s">
+      <c r="AL84" s="26" t="s">
         <v>481</v>
-      </c>
-      <c r="AL84" s="26" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
